--- a/DZ_5/Семинар5_задание3.xlsx
+++ b/DZ_5/Семинар5_задание3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dmitrii Sutyagin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dmitrii Sutyagin\Desktop\Новая папка\Mytraining\Excel\DZ_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C50222-E6A8-4E9C-B64B-1FD21286B36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2583E4CE-8B52-4706-AC48-BD4DB6149574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -114,7 +114,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -128,8 +128,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -156,7 +159,161 @@
   </cacheSource>
   <cacheFields count="4">
     <cacheField name="Площадь" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="15.2" maxValue="49.75"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="15.2" maxValue="49.75" count="153">
+        <n v="40.159999999999997"/>
+        <n v="27.62"/>
+        <n v="22.62"/>
+        <n v="46.26"/>
+        <n v="25.5"/>
+        <n v="29.57"/>
+        <n v="28.68"/>
+        <n v="33.56"/>
+        <n v="25.36"/>
+        <n v="34.51"/>
+        <n v="28.07"/>
+        <n v="28.91"/>
+        <n v="29.84"/>
+        <n v="35.06"/>
+        <n v="26.94"/>
+        <n v="24.55"/>
+        <n v="27.32"/>
+        <n v="24.36"/>
+        <n v="38.94"/>
+        <n v="40.93"/>
+        <n v="15.48"/>
+        <n v="35.479999999999997"/>
+        <n v="35.78"/>
+        <n v="46.27"/>
+        <n v="29.76"/>
+        <n v="37.799999999999997"/>
+        <n v="17.11"/>
+        <n v="31.24"/>
+        <n v="29.92"/>
+        <n v="42.77"/>
+        <n v="25.27"/>
+        <n v="37.479999999999997"/>
+        <n v="18.63"/>
+        <n v="26.82"/>
+        <n v="34.26"/>
+        <n v="25.54"/>
+        <n v="19.98"/>
+        <n v="30.38"/>
+        <n v="48.05"/>
+        <n v="19.48"/>
+        <n v="33.299999999999997"/>
+        <n v="18.2"/>
+        <n v="39.630000000000003"/>
+        <n v="39.03"/>
+        <n v="44.06"/>
+        <n v="27.21"/>
+        <n v="44.64"/>
+        <n v="24.01"/>
+        <n v="42.79"/>
+        <n v="40.76"/>
+        <n v="28.31"/>
+        <n v="45.08"/>
+        <n v="19.72"/>
+        <n v="32.36"/>
+        <n v="19.739999999999998"/>
+        <n v="22.81"/>
+        <n v="47.3"/>
+        <n v="47.42"/>
+        <n v="34.119999999999997"/>
+        <n v="21.12"/>
+        <n v="19.36"/>
+        <n v="29.6"/>
+        <n v="46"/>
+        <n v="26.62"/>
+        <n v="39.9"/>
+        <n v="32.619999999999997"/>
+        <n v="40.909999999999997"/>
+        <n v="37.26"/>
+        <n v="27.31"/>
+        <n v="37.159999999999997"/>
+        <n v="27.94"/>
+        <n v="41.44"/>
+        <n v="44.7"/>
+        <n v="32.67"/>
+        <n v="31.12"/>
+        <n v="46.88"/>
+        <n v="17.64"/>
+        <n v="24.78"/>
+        <n v="43.45"/>
+        <n v="49.3"/>
+        <n v="41.03"/>
+        <n v="40.24"/>
+        <n v="17.899999999999999"/>
+        <n v="22.94"/>
+        <n v="31.77"/>
+        <n v="22.52"/>
+        <n v="15.82"/>
+        <n v="39.68"/>
+        <n v="31.23"/>
+        <n v="27.61"/>
+        <n v="38.65"/>
+        <n v="33.71"/>
+        <n v="15.6"/>
+        <n v="32.15"/>
+        <n v="44.66"/>
+        <n v="42.94"/>
+        <n v="47.78"/>
+        <n v="30.36"/>
+        <n v="35.29"/>
+        <n v="43.16"/>
+        <n v="35.770000000000003"/>
+        <n v="33.4"/>
+        <n v="28.65"/>
+        <n v="44.48"/>
+        <n v="26.75"/>
+        <n v="45.48"/>
+        <n v="43.63"/>
+        <n v="37.42"/>
+        <n v="43.26"/>
+        <n v="23.52"/>
+        <n v="28.16"/>
+        <n v="43.24"/>
+        <n v="17.3"/>
+        <n v="35.57"/>
+        <n v="20.8"/>
+        <n v="22.42"/>
+        <n v="22.53"/>
+        <n v="21.88"/>
+        <n v="16.32"/>
+        <n v="29.58"/>
+        <n v="36.92"/>
+        <n v="48.65"/>
+        <n v="39.229999999999997"/>
+        <n v="16"/>
+        <n v="35.35"/>
+        <n v="37.25"/>
+        <n v="18.86"/>
+        <n v="44.41"/>
+        <n v="42.61"/>
+        <n v="43.59"/>
+        <n v="19.8"/>
+        <n v="17.73"/>
+        <n v="30.91"/>
+        <n v="15.2"/>
+        <n v="40.299999999999997"/>
+        <n v="41.08"/>
+        <n v="25.53"/>
+        <n v="28.04"/>
+        <n v="36.520000000000003"/>
+        <n v="33.229999999999997"/>
+        <n v="39.72"/>
+        <n v="35.74"/>
+        <n v="29.49"/>
+        <n v="26.99"/>
+        <n v="22.18"/>
+        <n v="35.26"/>
+        <n v="35.340000000000003"/>
+        <n v="49.75"/>
+        <n v="26.18"/>
+        <n v="46.55"/>
+        <n v="34.89"/>
+        <n v="45.26"/>
+        <n v="46.76"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Цена" numFmtId="165">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1468000" maxValue="5515100" count="155">
@@ -348,931 +505,931 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="155">
   <r>
-    <n v="40.159999999999997"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="27.62"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="22.62"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="46.26"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
     <x v="3"/>
-    <x v="0"/>
     <x v="3"/>
-  </r>
-  <r>
-    <n v="25.5"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
     <x v="4"/>
-    <x v="1"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="29.57"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
     <x v="5"/>
-    <x v="1"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="28.68"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
     <x v="6"/>
+    <x v="6"/>
     <x v="1"/>
     <x v="4"/>
   </r>
   <r>
-    <n v="33.56"/>
     <x v="7"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="25.36"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
     <x v="8"/>
-    <x v="1"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="34.51"/>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
     <x v="9"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="28.07"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
     <x v="10"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="28.91"/>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
     <x v="11"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="29.84"/>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
     <x v="12"/>
+    <x v="12"/>
     <x v="2"/>
     <x v="4"/>
   </r>
   <r>
-    <n v="35.06"/>
     <x v="13"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="26.94"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
     <x v="14"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="24.55"/>
+    <x v="14"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
     <x v="15"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="27.32"/>
+    <x v="15"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
     <x v="16"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="24.36"/>
+    <x v="16"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
     <x v="17"/>
+    <x v="17"/>
     <x v="1"/>
     <x v="4"/>
   </r>
   <r>
-    <n v="38.94"/>
     <x v="18"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="40.93"/>
+    <x v="18"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="19"/>
     <x v="19"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
-    <n v="15.48"/>
     <x v="20"/>
+    <x v="20"/>
     <x v="1"/>
     <x v="4"/>
   </r>
   <r>
-    <n v="35.479999999999997"/>
     <x v="21"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="35.78"/>
+    <x v="21"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
     <x v="22"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="46.27"/>
+    <x v="22"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="23"/>
     <x v="23"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
-    <n v="29.76"/>
     <x v="24"/>
+    <x v="24"/>
     <x v="2"/>
     <x v="4"/>
   </r>
   <r>
-    <n v="37.799999999999997"/>
     <x v="25"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="17.11"/>
+    <x v="25"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
     <x v="26"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="31.24"/>
+    <x v="26"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
     <x v="27"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="29.92"/>
+    <x v="27"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
     <x v="28"/>
+    <x v="28"/>
     <x v="1"/>
     <x v="4"/>
   </r>
   <r>
-    <n v="42.77"/>
     <x v="29"/>
+    <x v="29"/>
     <x v="0"/>
     <x v="3"/>
   </r>
   <r>
-    <n v="25.27"/>
     <x v="30"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="37.479999999999997"/>
+    <x v="30"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
     <x v="31"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="18.63"/>
+    <x v="31"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
     <x v="32"/>
+    <x v="32"/>
     <x v="1"/>
     <x v="5"/>
   </r>
   <r>
-    <n v="26.82"/>
     <x v="33"/>
+    <x v="33"/>
     <x v="1"/>
     <x v="4"/>
   </r>
   <r>
-    <n v="34.26"/>
     <x v="34"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="25.54"/>
+    <x v="34"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
     <x v="35"/>
-    <x v="1"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="19.98"/>
+    <x v="35"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
     <x v="36"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="30.38"/>
+    <x v="36"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
     <x v="37"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="48.05"/>
+    <x v="37"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="38"/>
     <x v="38"/>
     <x v="3"/>
     <x v="2"/>
   </r>
   <r>
-    <n v="19.48"/>
+    <x v="39"/>
     <x v="39"/>
     <x v="4"/>
     <x v="1"/>
   </r>
   <r>
-    <n v="33.299999999999997"/>
     <x v="40"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="18.2"/>
+    <x v="40"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="41"/>
     <x v="41"/>
     <x v="4"/>
     <x v="4"/>
   </r>
   <r>
-    <n v="39.630000000000003"/>
     <x v="42"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="39.03"/>
+    <x v="42"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
     <x v="43"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="44.06"/>
+    <x v="43"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="44"/>
     <x v="44"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
-    <n v="27.21"/>
     <x v="45"/>
+    <x v="45"/>
     <x v="1"/>
     <x v="4"/>
   </r>
   <r>
-    <n v="44.64"/>
+    <x v="46"/>
     <x v="46"/>
     <x v="3"/>
     <x v="3"/>
   </r>
   <r>
-    <n v="24.01"/>
     <x v="47"/>
+    <x v="47"/>
     <x v="2"/>
     <x v="4"/>
   </r>
   <r>
-    <n v="42.79"/>
+    <x v="48"/>
     <x v="48"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
-    <n v="40.76"/>
     <x v="49"/>
+    <x v="49"/>
     <x v="0"/>
     <x v="3"/>
   </r>
   <r>
-    <n v="28.31"/>
     <x v="50"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="45.08"/>
+    <x v="50"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
     <x v="51"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="19.72"/>
+    <x v="51"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="52"/>
     <x v="52"/>
     <x v="4"/>
     <x v="4"/>
   </r>
   <r>
-    <n v="32.36"/>
     <x v="53"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="19.739999999999998"/>
+    <x v="53"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="54"/>
     <x v="54"/>
     <x v="4"/>
     <x v="5"/>
   </r>
   <r>
-    <n v="22.81"/>
     <x v="55"/>
+    <x v="55"/>
     <x v="2"/>
     <x v="4"/>
   </r>
   <r>
-    <n v="47.3"/>
+    <x v="56"/>
     <x v="56"/>
     <x v="3"/>
     <x v="2"/>
   </r>
   <r>
-    <n v="47.42"/>
+    <x v="57"/>
     <x v="57"/>
     <x v="3"/>
     <x v="2"/>
   </r>
   <r>
-    <n v="34.119999999999997"/>
     <x v="58"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="21.12"/>
+    <x v="58"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
     <x v="59"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="19.36"/>
+    <x v="59"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="60"/>
     <x v="60"/>
     <x v="4"/>
     <x v="5"/>
   </r>
   <r>
-    <n v="29.6"/>
     <x v="61"/>
+    <x v="61"/>
     <x v="2"/>
     <x v="4"/>
   </r>
   <r>
-    <n v="46"/>
     <x v="62"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="26.62"/>
+    <x v="62"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
     <x v="63"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="39.9"/>
+    <x v="63"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
     <x v="64"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="32.619999999999997"/>
+    <x v="64"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
     <x v="65"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="40.909999999999997"/>
+    <x v="65"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="66"/>
     <x v="66"/>
     <x v="3"/>
     <x v="3"/>
   </r>
   <r>
-    <n v="37.26"/>
     <x v="67"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="27.31"/>
+    <x v="67"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
     <x v="68"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="37.159999999999997"/>
+    <x v="68"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
     <x v="69"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="27.94"/>
+    <x v="69"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
     <x v="70"/>
-    <x v="1"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="41.44"/>
+    <x v="70"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
     <x v="71"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="44.7"/>
+    <x v="71"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="72"/>
     <x v="72"/>
     <x v="3"/>
     <x v="3"/>
   </r>
   <r>
-    <n v="32.67"/>
     <x v="73"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="31.12"/>
+    <x v="73"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
     <x v="74"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="46.88"/>
+    <x v="74"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="75"/>
     <x v="75"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
-    <n v="17.64"/>
     <x v="76"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="24.78"/>
+    <x v="76"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
     <x v="77"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="43.45"/>
+    <x v="77"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
     <x v="78"/>
+    <x v="78"/>
     <x v="0"/>
     <x v="3"/>
   </r>
   <r>
-    <n v="49.3"/>
     <x v="79"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="41.03"/>
+    <x v="79"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
     <x v="80"/>
+    <x v="80"/>
     <x v="0"/>
     <x v="3"/>
   </r>
   <r>
-    <n v="40.24"/>
     <x v="81"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="17.899999999999999"/>
+    <x v="81"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="82"/>
     <x v="82"/>
     <x v="4"/>
     <x v="5"/>
   </r>
   <r>
-    <n v="22.94"/>
     <x v="83"/>
-    <x v="1"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="31.77"/>
+    <x v="83"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
     <x v="84"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="22.52"/>
+    <x v="84"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
     <x v="85"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="46.27"/>
+    <x v="85"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="23"/>
     <x v="86"/>
     <x v="3"/>
     <x v="2"/>
   </r>
   <r>
-    <n v="15.82"/>
+    <x v="86"/>
     <x v="87"/>
     <x v="4"/>
     <x v="4"/>
   </r>
   <r>
-    <n v="39.68"/>
+    <x v="87"/>
     <x v="88"/>
     <x v="0"/>
     <x v="2"/>
   </r>
   <r>
-    <n v="31.23"/>
+    <x v="88"/>
     <x v="89"/>
     <x v="0"/>
     <x v="2"/>
   </r>
   <r>
-    <n v="27.61"/>
+    <x v="89"/>
     <x v="90"/>
     <x v="2"/>
     <x v="2"/>
   </r>
   <r>
-    <n v="38.65"/>
+    <x v="90"/>
     <x v="91"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
-    <n v="33.71"/>
+    <x v="91"/>
     <x v="92"/>
     <x v="2"/>
     <x v="1"/>
   </r>
   <r>
-    <n v="15.6"/>
+    <x v="92"/>
     <x v="93"/>
     <x v="4"/>
     <x v="5"/>
   </r>
   <r>
-    <n v="32.15"/>
+    <x v="93"/>
     <x v="94"/>
     <x v="0"/>
     <x v="1"/>
   </r>
   <r>
-    <n v="44.66"/>
+    <x v="94"/>
     <x v="95"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
-    <n v="42.94"/>
+    <x v="95"/>
     <x v="96"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
-    <n v="47.78"/>
+    <x v="96"/>
     <x v="97"/>
     <x v="3"/>
     <x v="2"/>
   </r>
   <r>
-    <n v="30.36"/>
+    <x v="97"/>
     <x v="98"/>
     <x v="2"/>
     <x v="1"/>
   </r>
   <r>
-    <n v="21.12"/>
+    <x v="59"/>
     <x v="99"/>
     <x v="1"/>
     <x v="4"/>
   </r>
   <r>
-    <n v="35.29"/>
+    <x v="98"/>
     <x v="100"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
-    <n v="43.16"/>
+    <x v="99"/>
     <x v="101"/>
     <x v="3"/>
     <x v="2"/>
   </r>
   <r>
-    <n v="35.770000000000003"/>
+    <x v="100"/>
     <x v="102"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
-    <n v="33.4"/>
+    <x v="101"/>
     <x v="103"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
-    <n v="28.65"/>
+    <x v="102"/>
     <x v="104"/>
     <x v="2"/>
     <x v="1"/>
   </r>
   <r>
-    <n v="44.48"/>
+    <x v="103"/>
     <x v="105"/>
     <x v="0"/>
     <x v="3"/>
   </r>
   <r>
-    <n v="26.75"/>
+    <x v="104"/>
     <x v="106"/>
     <x v="2"/>
     <x v="4"/>
   </r>
   <r>
-    <n v="45.48"/>
+    <x v="105"/>
     <x v="107"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
-    <n v="43.63"/>
+    <x v="106"/>
     <x v="108"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
-    <n v="37.42"/>
+    <x v="107"/>
     <x v="109"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
-    <n v="43.26"/>
+    <x v="108"/>
     <x v="110"/>
     <x v="0"/>
     <x v="2"/>
   </r>
   <r>
-    <n v="23.52"/>
+    <x v="109"/>
     <x v="111"/>
     <x v="1"/>
     <x v="1"/>
   </r>
   <r>
-    <n v="28.16"/>
+    <x v="110"/>
     <x v="112"/>
     <x v="2"/>
     <x v="2"/>
   </r>
   <r>
-    <n v="43.24"/>
+    <x v="111"/>
     <x v="113"/>
     <x v="3"/>
     <x v="3"/>
   </r>
   <r>
-    <n v="17.3"/>
+    <x v="112"/>
     <x v="114"/>
     <x v="4"/>
     <x v="4"/>
   </r>
   <r>
-    <n v="35.57"/>
+    <x v="113"/>
     <x v="115"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
-    <n v="20.8"/>
+    <x v="114"/>
     <x v="116"/>
     <x v="1"/>
     <x v="4"/>
   </r>
   <r>
-    <n v="22.42"/>
+    <x v="115"/>
     <x v="117"/>
     <x v="1"/>
     <x v="1"/>
   </r>
   <r>
-    <n v="22.53"/>
+    <x v="116"/>
     <x v="118"/>
     <x v="1"/>
     <x v="4"/>
   </r>
   <r>
-    <n v="21.88"/>
+    <x v="117"/>
     <x v="119"/>
     <x v="2"/>
     <x v="4"/>
   </r>
   <r>
-    <n v="16.32"/>
+    <x v="118"/>
     <x v="120"/>
     <x v="1"/>
     <x v="5"/>
   </r>
   <r>
-    <n v="29.58"/>
+    <x v="119"/>
     <x v="121"/>
     <x v="2"/>
     <x v="2"/>
   </r>
   <r>
-    <n v="36.92"/>
+    <x v="120"/>
     <x v="122"/>
     <x v="2"/>
     <x v="2"/>
   </r>
   <r>
-    <n v="48.65"/>
+    <x v="121"/>
     <x v="123"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
-    <n v="39.229999999999997"/>
+    <x v="122"/>
     <x v="124"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
-    <n v="16"/>
+    <x v="123"/>
     <x v="125"/>
     <x v="4"/>
     <x v="5"/>
   </r>
   <r>
-    <n v="35.35"/>
+    <x v="124"/>
     <x v="126"/>
     <x v="2"/>
     <x v="2"/>
   </r>
   <r>
-    <n v="37.25"/>
+    <x v="125"/>
     <x v="127"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
-    <n v="18.86"/>
+    <x v="126"/>
     <x v="128"/>
     <x v="4"/>
     <x v="5"/>
   </r>
   <r>
-    <n v="44.41"/>
+    <x v="127"/>
     <x v="129"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
-    <n v="42.61"/>
+    <x v="128"/>
     <x v="130"/>
     <x v="0"/>
     <x v="2"/>
   </r>
   <r>
-    <n v="43.59"/>
+    <x v="129"/>
     <x v="131"/>
     <x v="0"/>
     <x v="3"/>
   </r>
   <r>
-    <n v="19.8"/>
+    <x v="130"/>
     <x v="132"/>
     <x v="1"/>
     <x v="5"/>
   </r>
   <r>
-    <n v="17.73"/>
+    <x v="131"/>
     <x v="133"/>
     <x v="1"/>
     <x v="4"/>
   </r>
   <r>
-    <n v="30.91"/>
+    <x v="132"/>
     <x v="134"/>
     <x v="0"/>
     <x v="1"/>
   </r>
   <r>
-    <n v="15.2"/>
+    <x v="133"/>
     <x v="135"/>
     <x v="4"/>
     <x v="4"/>
   </r>
   <r>
-    <n v="40.299999999999997"/>
+    <x v="134"/>
     <x v="136"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
-    <n v="41.08"/>
+    <x v="135"/>
     <x v="137"/>
     <x v="3"/>
     <x v="2"/>
   </r>
   <r>
-    <n v="25.53"/>
+    <x v="136"/>
     <x v="138"/>
     <x v="1"/>
     <x v="4"/>
   </r>
   <r>
-    <n v="28.04"/>
+    <x v="137"/>
     <x v="139"/>
     <x v="2"/>
     <x v="2"/>
   </r>
   <r>
-    <n v="36.520000000000003"/>
+    <x v="138"/>
     <x v="140"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
-    <n v="33.229999999999997"/>
+    <x v="139"/>
     <x v="141"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
-    <n v="39.72"/>
+    <x v="140"/>
     <x v="142"/>
     <x v="0"/>
     <x v="1"/>
   </r>
   <r>
-    <n v="35.74"/>
+    <x v="141"/>
     <x v="143"/>
     <x v="2"/>
     <x v="1"/>
   </r>
   <r>
-    <n v="29.49"/>
+    <x v="142"/>
     <x v="144"/>
     <x v="2"/>
     <x v="2"/>
   </r>
   <r>
-    <n v="26.99"/>
+    <x v="143"/>
     <x v="145"/>
     <x v="2"/>
     <x v="1"/>
   </r>
   <r>
-    <n v="22.18"/>
+    <x v="144"/>
     <x v="146"/>
     <x v="1"/>
     <x v="2"/>
   </r>
   <r>
-    <n v="35.26"/>
+    <x v="145"/>
     <x v="147"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
-    <n v="35.340000000000003"/>
+    <x v="146"/>
     <x v="148"/>
     <x v="0"/>
     <x v="1"/>
   </r>
   <r>
-    <n v="49.75"/>
+    <x v="147"/>
     <x v="149"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
-    <n v="26.18"/>
+    <x v="148"/>
     <x v="150"/>
     <x v="1"/>
     <x v="2"/>
   </r>
   <r>
-    <n v="46.55"/>
+    <x v="149"/>
     <x v="151"/>
     <x v="0"/>
     <x v="3"/>
   </r>
   <r>
-    <n v="34.89"/>
+    <x v="150"/>
     <x v="152"/>
     <x v="0"/>
     <x v="2"/>
   </r>
   <r>
-    <n v="45.26"/>
+    <x v="151"/>
     <x v="153"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
-    <n v="46.76"/>
+    <x v="152"/>
     <x v="154"/>
     <x v="0"/>
     <x v="3"/>
@@ -1281,10 +1438,167 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3EA1EF0A-9A10-42DF-8FFA-3F1A7E17BF46}" name="Сводная таблица1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A4:B93" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3EA1EF0A-9A10-42DF-8FFA-3F1A7E17BF46}" name="Сводная таблица1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A4:B180" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="4">
-    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="154">
+        <item x="133"/>
+        <item x="20"/>
+        <item x="92"/>
+        <item x="86"/>
+        <item x="123"/>
+        <item x="118"/>
+        <item x="26"/>
+        <item x="112"/>
+        <item x="76"/>
+        <item x="131"/>
+        <item x="82"/>
+        <item x="41"/>
+        <item x="32"/>
+        <item x="126"/>
+        <item x="60"/>
+        <item x="39"/>
+        <item x="52"/>
+        <item x="54"/>
+        <item x="130"/>
+        <item x="36"/>
+        <item x="114"/>
+        <item x="59"/>
+        <item x="117"/>
+        <item x="144"/>
+        <item x="115"/>
+        <item x="85"/>
+        <item x="116"/>
+        <item x="2"/>
+        <item x="55"/>
+        <item x="83"/>
+        <item x="109"/>
+        <item x="47"/>
+        <item x="17"/>
+        <item x="15"/>
+        <item x="77"/>
+        <item x="30"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="136"/>
+        <item x="35"/>
+        <item x="148"/>
+        <item x="63"/>
+        <item x="104"/>
+        <item x="33"/>
+        <item x="14"/>
+        <item x="143"/>
+        <item x="45"/>
+        <item x="68"/>
+        <item x="16"/>
+        <item x="89"/>
+        <item x="1"/>
+        <item x="70"/>
+        <item x="137"/>
+        <item x="10"/>
+        <item x="110"/>
+        <item x="50"/>
+        <item x="102"/>
+        <item x="6"/>
+        <item x="11"/>
+        <item x="142"/>
+        <item x="5"/>
+        <item x="119"/>
+        <item x="61"/>
+        <item x="24"/>
+        <item x="12"/>
+        <item x="28"/>
+        <item x="97"/>
+        <item x="37"/>
+        <item x="132"/>
+        <item x="74"/>
+        <item x="88"/>
+        <item x="27"/>
+        <item x="84"/>
+        <item x="93"/>
+        <item x="53"/>
+        <item x="65"/>
+        <item x="73"/>
+        <item x="139"/>
+        <item x="40"/>
+        <item x="101"/>
+        <item x="7"/>
+        <item x="91"/>
+        <item x="58"/>
+        <item x="34"/>
+        <item x="9"/>
+        <item x="150"/>
+        <item x="13"/>
+        <item x="145"/>
+        <item x="98"/>
+        <item x="146"/>
+        <item x="124"/>
+        <item x="21"/>
+        <item x="113"/>
+        <item x="141"/>
+        <item x="100"/>
+        <item x="22"/>
+        <item x="138"/>
+        <item x="120"/>
+        <item x="69"/>
+        <item x="125"/>
+        <item x="67"/>
+        <item x="107"/>
+        <item x="31"/>
+        <item x="25"/>
+        <item x="90"/>
+        <item x="18"/>
+        <item x="43"/>
+        <item x="122"/>
+        <item x="42"/>
+        <item x="87"/>
+        <item x="140"/>
+        <item x="64"/>
+        <item x="0"/>
+        <item x="81"/>
+        <item x="134"/>
+        <item x="49"/>
+        <item x="66"/>
+        <item x="19"/>
+        <item x="80"/>
+        <item x="135"/>
+        <item x="71"/>
+        <item x="128"/>
+        <item x="29"/>
+        <item x="48"/>
+        <item x="95"/>
+        <item x="99"/>
+        <item x="111"/>
+        <item x="108"/>
+        <item x="78"/>
+        <item x="129"/>
+        <item x="106"/>
+        <item x="44"/>
+        <item x="127"/>
+        <item x="103"/>
+        <item x="46"/>
+        <item x="94"/>
+        <item x="72"/>
+        <item x="51"/>
+        <item x="151"/>
+        <item x="105"/>
+        <item x="62"/>
+        <item x="3"/>
+        <item x="23"/>
+        <item x="149"/>
+        <item x="152"/>
+        <item x="75"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="96"/>
+        <item x="38"/>
+        <item x="121"/>
+        <item x="79"/>
+        <item x="147"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisRow" dataField="1" numFmtId="165" showAll="0" measureFilter="1">
       <items count="156">
         <item x="135"/>
@@ -1467,273 +1781,535 @@
       </items>
     </pivotField>
   </pivotFields>
-  <rowFields count="1">
+  <rowFields count="2">
+    <field x="0"/>
     <field x="1"/>
   </rowFields>
-  <rowItems count="89">
-    <i>
+  <rowItems count="176">
+    <i>
+      <x v="41"/>
+    </i>
+    <i r="1">
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i r="1">
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i r="1">
+      <x v="64"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i r="1">
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i r="1">
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i r="1">
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i r="1">
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i r="1">
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i r="1">
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i r="1">
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i r="1">
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i r="1">
       <x v="54"/>
     </i>
     <i>
-      <x v="55"/>
-    </i>
-    <i>
-      <x v="56"/>
-    </i>
-    <i>
-      <x v="57"/>
-    </i>
-    <i>
-      <x v="58"/>
-    </i>
-    <i>
-      <x v="59"/>
-    </i>
-    <i>
-      <x v="60"/>
-    </i>
-    <i>
+      <x v="65"/>
+    </i>
+    <i r="1">
       <x v="61"/>
     </i>
     <i>
+      <x v="66"/>
+    </i>
+    <i r="1">
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i r="1">
+      <x v="72"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i r="1">
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i r="1">
+      <x v="77"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i r="1">
+      <x v="87"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i r="1">
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i r="1">
+      <x v="83"/>
+    </i>
+    <i>
+      <x v="73"/>
+    </i>
+    <i r="1">
       <x v="62"/>
     </i>
     <i>
-      <x v="63"/>
-    </i>
-    <i>
-      <x v="64"/>
-    </i>
-    <i>
-      <x v="65"/>
-    </i>
-    <i>
-      <x v="66"/>
-    </i>
-    <i>
-      <x v="67"/>
-    </i>
-    <i>
-      <x v="68"/>
-    </i>
-    <i>
-      <x v="69"/>
-    </i>
-    <i>
+      <x v="74"/>
+    </i>
+    <i r="1">
       <x v="70"/>
     </i>
     <i>
-      <x v="71"/>
-    </i>
-    <i>
-      <x v="72"/>
-    </i>
-    <i>
+      <x v="75"/>
+    </i>
+    <i r="1">
+      <x v="75"/>
+    </i>
+    <i>
+      <x v="76"/>
+    </i>
+    <i r="1">
+      <x v="76"/>
+    </i>
+    <i>
+      <x v="77"/>
+    </i>
+    <i r="1">
+      <x v="93"/>
+    </i>
+    <i>
+      <x v="78"/>
+    </i>
+    <i r="1">
+      <x v="82"/>
+    </i>
+    <i>
+      <x v="79"/>
+    </i>
+    <i r="1">
+      <x v="74"/>
+    </i>
+    <i>
+      <x v="80"/>
+    </i>
+    <i r="1">
+      <x v="90"/>
+    </i>
+    <i>
+      <x v="81"/>
+    </i>
+    <i r="1">
       <x v="73"/>
     </i>
     <i>
-      <x v="74"/>
-    </i>
-    <i>
-      <x v="75"/>
-    </i>
-    <i>
-      <x v="76"/>
-    </i>
-    <i>
-      <x v="77"/>
-    </i>
-    <i>
+      <x v="82"/>
+    </i>
+    <i r="1">
+      <x v="81"/>
+    </i>
+    <i>
+      <x v="83"/>
+    </i>
+    <i r="1">
+      <x v="80"/>
+    </i>
+    <i>
+      <x v="84"/>
+    </i>
+    <i r="1">
+      <x v="79"/>
+    </i>
+    <i>
+      <x v="85"/>
+    </i>
+    <i r="1">
+      <x v="109"/>
+    </i>
+    <i>
+      <x v="86"/>
+    </i>
+    <i r="1">
+      <x v="84"/>
+    </i>
+    <i>
+      <x v="87"/>
+    </i>
+    <i r="1">
       <x v="78"/>
     </i>
     <i>
-      <x v="79"/>
-    </i>
-    <i>
-      <x v="80"/>
-    </i>
-    <i>
-      <x v="81"/>
-    </i>
-    <i>
-      <x v="82"/>
-    </i>
-    <i>
-      <x v="83"/>
-    </i>
-    <i>
-      <x v="84"/>
-    </i>
-    <i>
+      <x v="88"/>
+    </i>
+    <i r="1">
+      <x v="89"/>
+    </i>
+    <i>
+      <x v="89"/>
+    </i>
+    <i r="1">
+      <x v="98"/>
+    </i>
+    <i>
+      <x v="90"/>
+    </i>
+    <i r="1">
+      <x v="96"/>
+    </i>
+    <i>
+      <x v="91"/>
+    </i>
+    <i r="1">
+      <x v="106"/>
+    </i>
+    <i>
+      <x v="92"/>
+    </i>
+    <i r="1">
+      <x v="108"/>
+    </i>
+    <i>
+      <x v="93"/>
+    </i>
+    <i r="1">
+      <x v="92"/>
+    </i>
+    <i>
+      <x v="94"/>
+    </i>
+    <i r="1">
       <x v="85"/>
     </i>
     <i>
+      <x v="95"/>
+    </i>
+    <i r="1">
+      <x v="107"/>
+    </i>
+    <i>
+      <x v="96"/>
+    </i>
+    <i r="1">
+      <x v="100"/>
+    </i>
+    <i>
+      <x v="97"/>
+    </i>
+    <i r="1">
       <x v="86"/>
     </i>
     <i>
-      <x v="87"/>
-    </i>
-    <i>
+      <x v="98"/>
+    </i>
+    <i r="1">
       <x v="88"/>
     </i>
     <i>
-      <x v="89"/>
-    </i>
-    <i>
-      <x v="90"/>
-    </i>
-    <i>
+      <x v="99"/>
+    </i>
+    <i r="1">
+      <x v="105"/>
+    </i>
+    <i>
+      <x v="100"/>
+    </i>
+    <i r="1">
+      <x v="117"/>
+    </i>
+    <i>
+      <x v="101"/>
+    </i>
+    <i r="1">
+      <x v="94"/>
+    </i>
+    <i>
+      <x v="102"/>
+    </i>
+    <i r="1">
+      <x v="103"/>
+    </i>
+    <i>
+      <x v="103"/>
+    </i>
+    <i r="1">
+      <x v="110"/>
+    </i>
+    <i>
+      <x v="104"/>
+    </i>
+    <i r="1">
+      <x v="102"/>
+    </i>
+    <i>
+      <x v="105"/>
+    </i>
+    <i r="1">
+      <x v="95"/>
+    </i>
+    <i>
+      <x v="106"/>
+    </i>
+    <i r="1">
+      <x v="99"/>
+    </i>
+    <i>
+      <x v="107"/>
+    </i>
+    <i r="1">
+      <x v="101"/>
+    </i>
+    <i>
+      <x v="108"/>
+    </i>
+    <i r="1">
+      <x v="97"/>
+    </i>
+    <i>
+      <x v="109"/>
+    </i>
+    <i r="1">
+      <x v="114"/>
+    </i>
+    <i>
+      <x v="110"/>
+    </i>
+    <i r="1">
       <x v="91"/>
     </i>
     <i>
-      <x v="92"/>
-    </i>
-    <i>
-      <x v="93"/>
-    </i>
-    <i>
-      <x v="94"/>
-    </i>
-    <i>
-      <x v="95"/>
-    </i>
-    <i>
-      <x v="96"/>
-    </i>
-    <i>
-      <x v="97"/>
-    </i>
-    <i>
-      <x v="98"/>
-    </i>
-    <i>
-      <x v="99"/>
-    </i>
-    <i>
-      <x v="100"/>
-    </i>
-    <i>
-      <x v="101"/>
-    </i>
-    <i>
-      <x v="102"/>
-    </i>
-    <i>
-      <x v="103"/>
-    </i>
-    <i>
+      <x v="111"/>
+    </i>
+    <i r="1">
+      <x v="113"/>
+    </i>
+    <i>
+      <x v="112"/>
+    </i>
+    <i r="1">
+      <x v="129"/>
+    </i>
+    <i>
+      <x v="113"/>
+    </i>
+    <i r="1">
       <x v="104"/>
     </i>
     <i>
-      <x v="105"/>
-    </i>
-    <i>
-      <x v="106"/>
-    </i>
-    <i>
-      <x v="107"/>
-    </i>
-    <i>
-      <x v="108"/>
-    </i>
-    <i>
-      <x v="109"/>
-    </i>
-    <i>
-      <x v="110"/>
-    </i>
-    <i>
+      <x v="114"/>
+    </i>
+    <i r="1">
+      <x v="130"/>
+    </i>
+    <i>
+      <x v="117"/>
+    </i>
+    <i r="1">
+      <x v="119"/>
+    </i>
+    <i>
+      <x v="119"/>
+    </i>
+    <i r="1">
+      <x v="123"/>
+    </i>
+    <i>
+      <x v="120"/>
+    </i>
+    <i r="1">
+      <x v="118"/>
+    </i>
+    <i>
+      <x v="121"/>
+    </i>
+    <i r="1">
+      <x v="121"/>
+    </i>
+    <i>
+      <x v="123"/>
+    </i>
+    <i r="1">
+      <x v="139"/>
+    </i>
+    <i>
+      <x v="124"/>
+    </i>
+    <i r="1">
+      <x v="131"/>
+    </i>
+    <i>
+      <x v="125"/>
+    </i>
+    <i r="1">
       <x v="111"/>
     </i>
     <i>
-      <x v="113"/>
-    </i>
-    <i>
-      <x v="114"/>
-    </i>
-    <i>
-      <x v="117"/>
-    </i>
-    <i>
-      <x v="118"/>
-    </i>
-    <i>
-      <x v="119"/>
-    </i>
-    <i>
+      <x v="127"/>
+    </i>
+    <i r="1">
+      <x v="122"/>
+    </i>
+    <i>
+      <x v="130"/>
+    </i>
+    <i r="1">
       <x v="120"/>
     </i>
     <i>
-      <x v="121"/>
-    </i>
-    <i>
-      <x v="122"/>
-    </i>
-    <i>
-      <x v="123"/>
-    </i>
-    <i>
+      <x v="131"/>
+    </i>
+    <i r="1">
+      <x v="132"/>
+    </i>
+    <i>
+      <x v="132"/>
+    </i>
+    <i r="1">
+      <x v="142"/>
+    </i>
+    <i>
+      <x v="135"/>
+    </i>
+    <i r="1">
       <x v="124"/>
     </i>
     <i>
+      <x v="137"/>
+    </i>
+    <i r="1">
+      <x v="145"/>
+    </i>
+    <i>
+      <x v="138"/>
+    </i>
+    <i r="1">
+      <x v="149"/>
+    </i>
+    <i>
+      <x v="139"/>
+    </i>
+    <i r="1">
+      <x v="128"/>
+    </i>
+    <i>
+      <x v="140"/>
+    </i>
+    <i r="1">
+      <x v="137"/>
+    </i>
+    <i>
+      <x v="142"/>
+    </i>
+    <i r="1">
+      <x v="136"/>
+    </i>
+    <i r="1">
+      <x v="152"/>
+    </i>
+    <i>
+      <x v="145"/>
+    </i>
+    <i r="1">
+      <x v="135"/>
+    </i>
+    <i>
+      <x v="146"/>
+    </i>
+    <i r="1">
       <x v="127"/>
     </i>
     <i>
-      <x v="128"/>
-    </i>
-    <i>
-      <x v="129"/>
-    </i>
-    <i>
-      <x v="130"/>
-    </i>
-    <i>
-      <x v="131"/>
-    </i>
-    <i>
-      <x v="132"/>
-    </i>
-    <i>
+      <x v="147"/>
+    </i>
+    <i r="1">
+      <x v="144"/>
+    </i>
+    <i>
+      <x v="148"/>
+    </i>
+    <i r="1">
+      <x v="148"/>
+    </i>
+    <i>
+      <x v="149"/>
+    </i>
+    <i r="1">
       <x v="134"/>
     </i>
     <i>
-      <x v="135"/>
-    </i>
-    <i>
-      <x v="136"/>
-    </i>
-    <i>
-      <x v="137"/>
-    </i>
-    <i>
-      <x v="139"/>
-    </i>
-    <i>
-      <x v="142"/>
-    </i>
-    <i>
-      <x v="144"/>
-    </i>
-    <i>
-      <x v="145"/>
-    </i>
-    <i>
-      <x v="148"/>
-    </i>
-    <i>
-      <x v="149"/>
-    </i>
-    <i>
       <x v="150"/>
     </i>
-    <i>
+    <i r="1">
       <x v="151"/>
     </i>
     <i>
+      <x v="151"/>
+    </i>
+    <i r="1">
+      <x v="154"/>
+    </i>
+    <i>
       <x v="152"/>
     </i>
-    <i>
-      <x v="154"/>
+    <i r="1">
+      <x v="150"/>
     </i>
     <i t="grand">
       <x/>
@@ -2093,16 +2669,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C70A46AF-ADE1-489D-A139-ED696F21F539}">
-  <dimension ref="A1:B93"/>
+  <dimension ref="A1:B180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="89" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="8" bestFit="1" customWidth="1"/>
+    <col min="158" max="159" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -2131,14 +2807,14 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
-        <v>3030100</v>
+        <v>26.62</v>
       </c>
       <c r="B5" s="5">
-        <v>3030100</v>
+        <v>3034960</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+      <c r="A6" s="8">
         <v>3034960</v>
       </c>
       <c r="B6" s="5">
@@ -2147,697 +2823,1393 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
-        <v>3045000</v>
+        <v>26.75</v>
       </c>
       <c r="B7" s="5">
-        <v>3045000</v>
+        <v>3055750</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
-        <v>3049880</v>
+      <c r="A8" s="8">
+        <v>3055750</v>
       </c>
       <c r="B8" s="5">
-        <v>3049880</v>
+        <v>3055750</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
-        <v>3051210</v>
+        <v>27.32</v>
       </c>
       <c r="B9" s="5">
-        <v>3051210</v>
+        <v>3137880</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
-        <v>3055750</v>
+      <c r="A10" s="8">
+        <v>3137880</v>
       </c>
       <c r="B10" s="5">
-        <v>3055750</v>
+        <v>3137880</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
-        <v>3091440</v>
+        <v>27.61</v>
       </c>
       <c r="B11" s="5">
         <v>3091440</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
-        <v>3112000</v>
+      <c r="A12" s="8">
+        <v>3091440</v>
       </c>
       <c r="B12" s="5">
-        <v>3112000</v>
+        <v>3091440</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
-        <v>3125650</v>
+        <v>27.94</v>
       </c>
       <c r="B13" s="5">
-        <v>3125650</v>
+        <v>3049880</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
-        <v>3135930</v>
+      <c r="A14" s="8">
+        <v>3049880</v>
       </c>
       <c r="B14" s="5">
-        <v>3135930</v>
+        <v>3049880</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
-        <v>3137880</v>
+        <v>28.04</v>
       </c>
       <c r="B15" s="5">
-        <v>3137880</v>
+        <v>3276360</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
-        <v>3188760</v>
+      <c r="A16" s="8">
+        <v>3276360</v>
       </c>
       <c r="B16" s="5">
-        <v>3188760</v>
+        <v>3276360</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
-        <v>3216000</v>
+        <v>28.07</v>
       </c>
       <c r="B17" s="5">
-        <v>3216000</v>
+        <v>3051210</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
-        <v>3229180</v>
+      <c r="A18" s="8">
+        <v>3051210</v>
       </c>
       <c r="B18" s="5">
-        <v>3229180</v>
+        <v>3051210</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
-        <v>3261520</v>
+        <v>28.31</v>
       </c>
       <c r="B19" s="5">
-        <v>3261520</v>
+        <v>3135930</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
-        <v>3276360</v>
+      <c r="A20" s="8">
+        <v>3135930</v>
       </c>
       <c r="B20" s="5">
-        <v>3276360</v>
+        <v>3135930</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
-        <v>3281840</v>
+        <v>28.65</v>
       </c>
       <c r="B21" s="5">
-        <v>3281840</v>
+        <v>3045000</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
-        <v>3286960</v>
+      <c r="A22" s="8">
+        <v>3045000</v>
       </c>
       <c r="B22" s="5">
-        <v>3286960</v>
+        <v>3045000</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
-        <v>3339520</v>
+        <v>28.68</v>
       </c>
       <c r="B23" s="5">
-        <v>3339520</v>
+        <v>3188760</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
-        <v>3348740</v>
+      <c r="A24" s="8">
+        <v>3188760</v>
       </c>
       <c r="B24" s="5">
-        <v>3348740</v>
+        <v>3188760</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
-        <v>3366200</v>
+        <v>29.49</v>
       </c>
       <c r="B25" s="5">
-        <v>3366200</v>
+        <v>3286960</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="7">
-        <v>3376760</v>
+      <c r="A26" s="8">
+        <v>3286960</v>
       </c>
       <c r="B26" s="5">
-        <v>3376760</v>
+        <v>3286960</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
-        <v>3421660</v>
+        <v>29.58</v>
       </c>
       <c r="B27" s="5">
-        <v>3421660</v>
+        <v>3030100</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="7">
-        <v>3465360</v>
+      <c r="A28" s="8">
+        <v>3030100</v>
       </c>
       <c r="B28" s="5">
-        <v>3465360</v>
+        <v>3030100</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
-        <v>3468660</v>
+        <v>29.92</v>
       </c>
       <c r="B29" s="5">
-        <v>3468660</v>
+        <v>3112000</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="7">
-        <v>3489430</v>
+      <c r="A30" s="8">
+        <v>3112000</v>
       </c>
       <c r="B30" s="5">
-        <v>3489430</v>
+        <v>3112000</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
-        <v>3568960</v>
+        <v>30.36</v>
       </c>
       <c r="B31" s="5">
-        <v>3568960</v>
+        <v>3216000</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="7">
-        <v>3589640</v>
+      <c r="A32" s="8">
+        <v>3216000</v>
       </c>
       <c r="B32" s="5">
-        <v>3589640</v>
+        <v>3216000</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
-        <v>3610000</v>
+        <v>30.38</v>
       </c>
       <c r="B33" s="5">
-        <v>3610000</v>
+        <v>3339520</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="7">
-        <v>3619390</v>
+      <c r="A34" s="8">
+        <v>3339520</v>
       </c>
       <c r="B34" s="5">
-        <v>3619390</v>
+        <v>3339520</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
-        <v>3635880</v>
+        <v>30.91</v>
       </c>
       <c r="B35" s="5">
-        <v>3635880</v>
+        <v>3229180</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="7">
-        <v>3642380</v>
+      <c r="A36" s="8">
+        <v>3229180</v>
       </c>
       <c r="B36" s="5">
-        <v>3642380</v>
+        <v>3229180</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
-        <v>3653560</v>
+        <v>31.12</v>
       </c>
       <c r="B37" s="5">
-        <v>3653560</v>
+        <v>3465360</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="7">
-        <v>3675300</v>
+      <c r="A38" s="8">
+        <v>3465360</v>
       </c>
       <c r="B38" s="5">
-        <v>3675300</v>
+        <v>3465360</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
-        <v>3698720</v>
+        <v>31.23</v>
       </c>
       <c r="B39" s="5">
-        <v>3698720</v>
+        <v>3675300</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="7">
-        <v>3703130</v>
+      <c r="A40" s="8">
+        <v>3675300</v>
       </c>
       <c r="B40" s="5">
-        <v>3703130</v>
+        <v>3675300</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
-        <v>3757360</v>
+        <v>31.24</v>
       </c>
       <c r="B41" s="5">
-        <v>3757360</v>
+        <v>3261520</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="7">
-        <v>3774800</v>
+      <c r="A42" s="8">
+        <v>3261520</v>
       </c>
       <c r="B42" s="5">
-        <v>3774800</v>
+        <v>3261520</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
-        <v>3789740</v>
+        <v>31.77</v>
       </c>
       <c r="B43" s="5">
-        <v>3789740</v>
+        <v>3619390</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="7">
-        <v>3802380</v>
+      <c r="A44" s="8">
+        <v>3619390</v>
       </c>
       <c r="B44" s="5">
-        <v>3802380</v>
+        <v>3619390</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
-        <v>3814900</v>
+        <v>32.15</v>
       </c>
       <c r="B45" s="5">
-        <v>3814900</v>
+        <v>3125650</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="7">
-        <v>3842480</v>
+      <c r="A46" s="8">
+        <v>3125650</v>
       </c>
       <c r="B46" s="5">
-        <v>3842480</v>
+        <v>3125650</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
-        <v>3861050</v>
+        <v>32.36</v>
       </c>
       <c r="B47" s="5">
-        <v>3861050</v>
+        <v>3281840</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="7">
-        <v>3865960</v>
+      <c r="A48" s="8">
+        <v>3281840</v>
       </c>
       <c r="B48" s="5">
-        <v>3865960</v>
+        <v>3281840</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
-        <v>3875360</v>
+        <v>32.619999999999997</v>
       </c>
       <c r="B49" s="5">
-        <v>3875360</v>
+        <v>3376760</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="7">
-        <v>3887850</v>
+      <c r="A50" s="8">
+        <v>3376760</v>
       </c>
       <c r="B50" s="5">
-        <v>3887850</v>
+        <v>3376760</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
-        <v>3895480</v>
+        <v>32.67</v>
       </c>
       <c r="B51" s="5">
-        <v>3895480</v>
+        <v>3421660</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="7">
-        <v>3908390</v>
+      <c r="A52" s="8">
+        <v>3421660</v>
       </c>
       <c r="B52" s="5">
-        <v>3908390</v>
+        <v>3421660</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
-        <v>3951750</v>
+        <v>33.229999999999997</v>
       </c>
       <c r="B53" s="5">
-        <v>3951750</v>
+        <v>3802380</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="7">
-        <v>3953040</v>
+      <c r="A54" s="8">
+        <v>3802380</v>
       </c>
       <c r="B54" s="5">
-        <v>3953040</v>
+        <v>3802380</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
-        <v>3982080</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="B55" s="5">
-        <v>3982080</v>
+        <v>3610000</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="7">
-        <v>4005000</v>
+      <c r="A56" s="8">
+        <v>3610000</v>
       </c>
       <c r="B56" s="5">
-        <v>4005000</v>
+        <v>3610000</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
-        <v>4031840</v>
+        <v>33.4</v>
       </c>
       <c r="B57" s="5">
-        <v>4031840</v>
+        <v>3366200</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="7">
-        <v>4044240</v>
+      <c r="A58" s="8">
+        <v>3366200</v>
       </c>
       <c r="B58" s="5">
-        <v>4044240</v>
+        <v>3366200</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
-        <v>4050420</v>
+        <v>33.56</v>
       </c>
       <c r="B59" s="5">
-        <v>4050420</v>
+        <v>3757360</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="7">
-        <v>4077900</v>
+      <c r="A60" s="8">
+        <v>3757360</v>
       </c>
       <c r="B60" s="5">
-        <v>4077900</v>
+        <v>3757360</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
-        <v>4115600</v>
+        <v>33.71</v>
       </c>
       <c r="B61" s="5">
-        <v>4115600</v>
+        <v>3348740</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="7">
-        <v>4230720</v>
+      <c r="A62" s="8">
+        <v>3348740</v>
       </c>
       <c r="B62" s="5">
-        <v>4230720</v>
+        <v>3348740</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
-        <v>4250000</v>
+        <v>34.119999999999997</v>
       </c>
       <c r="B63" s="5">
-        <v>4250000</v>
+        <v>3589640</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="7">
-        <v>4287360</v>
+      <c r="A64" s="8">
+        <v>3589640</v>
       </c>
       <c r="B64" s="5">
-        <v>4287360</v>
+        <v>3589640</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
-        <v>4338600</v>
+        <v>34.26</v>
       </c>
       <c r="B65" s="5">
-        <v>4338600</v>
+        <v>3568960</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="7">
-        <v>4341120</v>
+      <c r="A66" s="8">
+        <v>3568960</v>
       </c>
       <c r="B66" s="5">
-        <v>4341120</v>
+        <v>3568960</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
-        <v>4352070</v>
+        <v>34.51</v>
       </c>
       <c r="B67" s="5">
-        <v>4352070</v>
+        <v>3489430</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="7">
-        <v>4357590</v>
+      <c r="A68" s="8">
+        <v>3489430</v>
       </c>
       <c r="B68" s="5">
-        <v>4357590</v>
+        <v>3489430</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="7">
-        <v>4373170</v>
+        <v>34.89</v>
       </c>
       <c r="B69" s="5">
-        <v>4373170</v>
+        <v>4077900</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="7">
-        <v>4392960</v>
+      <c r="A70" s="8">
+        <v>4077900</v>
       </c>
       <c r="B70" s="5">
-        <v>4392960</v>
+        <v>4077900</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="7">
-        <v>4409080</v>
+        <v>35.06</v>
       </c>
       <c r="B71" s="5">
-        <v>4409080</v>
+        <v>3635880</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="7">
-        <v>4453380</v>
+      <c r="A72" s="8">
+        <v>3635880</v>
       </c>
       <c r="B72" s="5">
-        <v>4453380</v>
+        <v>3635880</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="7">
-        <v>4517000</v>
+        <v>35.26</v>
       </c>
       <c r="B73" s="5">
-        <v>4517000</v>
+        <v>3468660</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="7">
-        <v>4529640</v>
+      <c r="A74" s="8">
+        <v>3468660</v>
       </c>
       <c r="B74" s="5">
-        <v>4529640</v>
+        <v>3468660</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="7">
-        <v>4536960</v>
+        <v>35.29</v>
       </c>
       <c r="B75" s="5">
-        <v>4536960</v>
+        <v>3703130</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="7">
-        <v>4612100</v>
+      <c r="A76" s="8">
+        <v>3703130</v>
       </c>
       <c r="B76" s="5">
-        <v>4612100</v>
+        <v>3703130</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="7">
-        <v>4616940</v>
+        <v>35.340000000000003</v>
       </c>
       <c r="B77" s="5">
-        <v>4616940</v>
+        <v>3875360</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="7">
-        <v>4617880</v>
+      <c r="A78" s="8">
+        <v>3875360</v>
       </c>
       <c r="B78" s="5">
-        <v>4617880</v>
+        <v>3875360</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="7">
-        <v>4632550</v>
+        <v>35.35</v>
       </c>
       <c r="B79" s="5">
-        <v>4632550</v>
+        <v>3861050</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="7">
-        <v>4659840</v>
+      <c r="A80" s="8">
+        <v>3861050</v>
       </c>
       <c r="B80" s="5">
-        <v>4659840</v>
+        <v>3861050</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="7">
-        <v>4701920</v>
+        <v>35.479999999999997</v>
       </c>
       <c r="B81" s="5">
-        <v>4701920</v>
+        <v>4031840</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="7">
-        <v>4702000</v>
+      <c r="A82" s="8">
+        <v>4031840</v>
       </c>
       <c r="B82" s="5">
-        <v>4702000</v>
+        <v>4031840</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="7">
-        <v>4750160</v>
+        <v>35.57</v>
       </c>
       <c r="B83" s="5">
-        <v>4750160</v>
+        <v>4050420</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="7">
-        <v>4874230</v>
+      <c r="A84" s="8">
+        <v>4050420</v>
       </c>
       <c r="B84" s="5">
-        <v>4874230</v>
+        <v>4050420</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="7">
-        <v>4907160</v>
+        <v>35.74</v>
       </c>
       <c r="B85" s="5">
-        <v>4907160</v>
+        <v>3789740</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="7">
-        <v>4923240</v>
+      <c r="A86" s="8">
+        <v>3789740</v>
       </c>
       <c r="B86" s="5">
-        <v>4923240</v>
+        <v>3789740</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="7">
-        <v>5038000</v>
+        <v>35.770000000000003</v>
       </c>
       <c r="B87" s="5">
-        <v>5038000</v>
+        <v>3642380</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="7">
-        <v>5052300</v>
+      <c r="A88" s="8">
+        <v>3642380</v>
       </c>
       <c r="B88" s="5">
-        <v>5052300</v>
+        <v>3642380</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="7">
-        <v>5056000</v>
+        <v>35.78</v>
       </c>
       <c r="B89" s="5">
-        <v>5056000</v>
+        <v>4044240</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="7">
-        <v>5067700</v>
+      <c r="A90" s="8">
+        <v>4044240</v>
       </c>
       <c r="B90" s="5">
-        <v>5067700</v>
+        <v>4044240</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="7">
+        <v>36.520000000000003</v>
+      </c>
+      <c r="B91" s="5">
+        <v>3895480</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="8">
+        <v>3895480</v>
+      </c>
+      <c r="B92" s="5">
+        <v>3895480</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="7">
+        <v>36.92</v>
+      </c>
+      <c r="B93" s="5">
+        <v>3653560</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="8">
+        <v>3653560</v>
+      </c>
+      <c r="B94" s="5">
+        <v>3653560</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="7">
+        <v>37.159999999999997</v>
+      </c>
+      <c r="B95" s="5">
+        <v>3698720</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="8">
+        <v>3698720</v>
+      </c>
+      <c r="B96" s="5">
+        <v>3698720</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="7">
+        <v>37.25</v>
+      </c>
+      <c r="B97" s="5">
+        <v>4005000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="8">
+        <v>4005000</v>
+      </c>
+      <c r="B98" s="5">
+        <v>4005000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="7">
+        <v>37.26</v>
+      </c>
+      <c r="B99" s="5">
+        <v>4338600</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="8">
+        <v>4338600</v>
+      </c>
+      <c r="B100" s="5">
+        <v>4338600</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="7">
+        <v>37.42</v>
+      </c>
+      <c r="B101" s="5">
+        <v>3814900</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="8">
+        <v>3814900</v>
+      </c>
+      <c r="B102" s="5">
+        <v>3814900</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="7">
+        <v>37.479999999999997</v>
+      </c>
+      <c r="B103" s="5">
+        <v>3953040</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="8">
+        <v>3953040</v>
+      </c>
+      <c r="B104" s="5">
+        <v>3953040</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="7">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="B105" s="5">
+        <v>4115600</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="8">
+        <v>4115600</v>
+      </c>
+      <c r="B106" s="5">
+        <v>4115600</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="7">
+        <v>38.65</v>
+      </c>
+      <c r="B107" s="5">
+        <v>3951750</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="8">
+        <v>3951750</v>
+      </c>
+      <c r="B108" s="5">
+        <v>3951750</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="7">
+        <v>38.94</v>
+      </c>
+      <c r="B109" s="5">
+        <v>3842480</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="8">
+        <v>3842480</v>
+      </c>
+      <c r="B110" s="5">
+        <v>3842480</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="7">
+        <v>39.03</v>
+      </c>
+      <c r="B111" s="5">
+        <v>3887850</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="8">
+        <v>3887850</v>
+      </c>
+      <c r="B112" s="5">
+        <v>3887850</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="7">
+        <v>39.229999999999997</v>
+      </c>
+      <c r="B113" s="5">
+        <v>3908390</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="8">
+        <v>3908390</v>
+      </c>
+      <c r="B114" s="5">
+        <v>3908390</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="7">
+        <v>39.630000000000003</v>
+      </c>
+      <c r="B115" s="5">
+        <v>3865960</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="8">
+        <v>3865960</v>
+      </c>
+      <c r="B116" s="5">
+        <v>3865960</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="7">
+        <v>39.68</v>
+      </c>
+      <c r="B117" s="5">
+        <v>4287360</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="8">
+        <v>4287360</v>
+      </c>
+      <c r="B118" s="5">
+        <v>4287360</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="7">
+        <v>39.72</v>
+      </c>
+      <c r="B119" s="5">
+        <v>3774800</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="8">
+        <v>3774800</v>
+      </c>
+      <c r="B120" s="5">
+        <v>3774800</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="7">
+        <v>39.9</v>
+      </c>
+      <c r="B121" s="5">
+        <v>4250000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="8">
+        <v>4250000</v>
+      </c>
+      <c r="B122" s="5">
+        <v>4250000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="7">
+        <v>40.159999999999997</v>
+      </c>
+      <c r="B123" s="5">
+        <v>4536960</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="8">
+        <v>4536960</v>
+      </c>
+      <c r="B124" s="5">
+        <v>4536960</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="7">
+        <v>40.24</v>
+      </c>
+      <c r="B125" s="5">
+        <v>3982080</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="8">
+        <v>3982080</v>
+      </c>
+      <c r="B126" s="5">
+        <v>3982080</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="7">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="B127" s="5">
+        <v>4612100</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="8">
+        <v>4612100</v>
+      </c>
+      <c r="B128" s="5">
+        <v>4612100</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="7">
+        <v>40.93</v>
+      </c>
+      <c r="B129" s="5">
+        <v>4352070</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="8">
+        <v>4352070</v>
+      </c>
+      <c r="B130" s="5">
+        <v>4352070</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="7">
+        <v>41.08</v>
+      </c>
+      <c r="B131" s="5">
+        <v>4409080</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="8">
+        <v>4409080</v>
+      </c>
+      <c r="B132" s="5">
+        <v>4409080</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="7">
+        <v>41.44</v>
+      </c>
+      <c r="B133" s="5">
+        <v>4341120</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="8">
+        <v>4341120</v>
+      </c>
+      <c r="B134" s="5">
+        <v>4341120</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="7">
+        <v>42.61</v>
+      </c>
+      <c r="B135" s="5">
+        <v>4373170</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="8">
+        <v>4373170</v>
+      </c>
+      <c r="B136" s="5">
+        <v>4373170</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="7">
+        <v>42.79</v>
+      </c>
+      <c r="B137" s="5">
+        <v>4750160</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="8">
+        <v>4750160</v>
+      </c>
+      <c r="B138" s="5">
+        <v>4750160</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="7">
+        <v>42.94</v>
+      </c>
+      <c r="B139" s="5">
+        <v>4616940</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="8">
+        <v>4616940</v>
+      </c>
+      <c r="B140" s="5">
+        <v>4616940</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="7">
+        <v>43.16</v>
+      </c>
+      <c r="B141" s="5">
+        <v>4230720</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="8">
+        <v>4230720</v>
+      </c>
+      <c r="B142" s="5">
+        <v>4230720</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="7">
+        <v>43.26</v>
+      </c>
+      <c r="B143" s="5">
+        <v>4392960</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="8">
+        <v>4392960</v>
+      </c>
+      <c r="B144" s="5">
+        <v>4392960</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="7">
+        <v>43.63</v>
+      </c>
+      <c r="B145" s="5">
+        <v>4357590</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="8">
+        <v>4357590</v>
+      </c>
+      <c r="B146" s="5">
+        <v>4357590</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="7">
+        <v>44.06</v>
+      </c>
+      <c r="B147" s="5">
+        <v>4617880</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="8">
+        <v>4617880</v>
+      </c>
+      <c r="B148" s="5">
+        <v>4617880</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="7">
+        <v>44.41</v>
+      </c>
+      <c r="B149" s="5">
+        <v>4874230</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="8">
+        <v>4874230</v>
+      </c>
+      <c r="B150" s="5">
+        <v>4874230</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="7">
+        <v>44.66</v>
+      </c>
+      <c r="B151" s="5">
+        <v>4453380</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="8">
+        <v>4453380</v>
+      </c>
+      <c r="B152" s="5">
+        <v>4453380</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="7">
+        <v>45.08</v>
+      </c>
+      <c r="B153" s="5">
+        <v>4923240</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" s="8">
+        <v>4923240</v>
+      </c>
+      <c r="B154" s="5">
+        <v>4923240</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" s="7">
+        <v>45.26</v>
+      </c>
+      <c r="B155" s="5">
+        <v>5052300</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="8">
+        <v>5052300</v>
+      </c>
+      <c r="B156" s="5">
+        <v>5052300</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" s="7">
+        <v>45.48</v>
+      </c>
+      <c r="B157" s="5">
+        <v>4529640</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" s="8">
+        <v>4529640</v>
+      </c>
+      <c r="B158" s="5">
+        <v>4529640</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="7">
+        <v>46</v>
+      </c>
+      <c r="B159" s="5">
+        <v>4702000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" s="8">
+        <v>4702000</v>
+      </c>
+      <c r="B160" s="5">
+        <v>4702000</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" s="7">
+        <v>46.27</v>
+      </c>
+      <c r="B161" s="5">
+        <v>9860270</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" s="8">
+        <v>4701920</v>
+      </c>
+      <c r="B162" s="5">
+        <v>4701920</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" s="8">
         <v>5158350</v>
       </c>
-      <c r="B91" s="5">
+      <c r="B163" s="5">
         <v>5158350</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="7">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" s="7">
+        <v>46.88</v>
+      </c>
+      <c r="B164" s="5">
+        <v>4659840</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" s="8">
+        <v>4659840</v>
+      </c>
+      <c r="B165" s="5">
+        <v>4659840</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" s="7">
+        <v>47.3</v>
+      </c>
+      <c r="B166" s="5">
+        <v>4517000</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" s="8">
+        <v>4517000</v>
+      </c>
+      <c r="B167" s="5">
+        <v>4517000</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" s="7">
+        <v>47.42</v>
+      </c>
+      <c r="B168" s="5">
+        <v>4907160</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" s="8">
+        <v>4907160</v>
+      </c>
+      <c r="B169" s="5">
+        <v>4907160</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" s="7">
+        <v>47.78</v>
+      </c>
+      <c r="B170" s="5">
+        <v>5038000</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" s="8">
+        <v>5038000</v>
+      </c>
+      <c r="B171" s="5">
+        <v>5038000</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" s="7">
+        <v>48.05</v>
+      </c>
+      <c r="B172" s="5">
+        <v>4632550</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" s="8">
+        <v>4632550</v>
+      </c>
+      <c r="B173" s="5">
+        <v>4632550</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" s="7">
+        <v>48.65</v>
+      </c>
+      <c r="B174" s="5">
+        <v>5067700</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" s="8">
+        <v>5067700</v>
+      </c>
+      <c r="B175" s="5">
+        <v>5067700</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" s="7">
+        <v>49.3</v>
+      </c>
+      <c r="B176" s="5">
         <v>5515100</v>
       </c>
-      <c r="B92" s="5">
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" s="8">
         <v>5515100</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="7" t="s">
+      <c r="B177" s="5">
+        <v>5515100</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" s="7">
+        <v>49.75</v>
+      </c>
+      <c r="B178" s="5">
+        <v>5056000</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" s="8">
+        <v>5056000</v>
+      </c>
+      <c r="B179" s="5">
+        <v>5056000</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B93" s="5">
+      <c r="B180" s="5">
         <v>346826450</v>
       </c>
     </row>
@@ -5055,23 +6427,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <Used_x0020_in_x0020_Chapter xmlns="d1607db4-bd3f-4f82-a312-bf7e283d0a6b">true</Used_x0020_in_x0020_Chapter>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AF8E4BBD310ADB419B3C5F1ACE4D113D" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="63e1bd94a874076348984a0131457edc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d1607db4-bd3f-4f82-a312-bf7e283d0a6b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c9989741aedae2f07a76d9f40ef2a18" ns2:_="">
     <xsd:import namespace="d1607db4-bd3f-4f82-a312-bf7e283d0a6b"/>
@@ -5131,24 +6486,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96C007-0B6E-48A2-8994-8B6C31AB568A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="d1607db4-bd3f-4f82-a312-bf7e283d0a6b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93500E59-78EE-48D4-AA52-7DA38FAD0A32}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <Used_x0020_in_x0020_Chapter xmlns="d1607db4-bd3f-4f82-a312-bf7e283d0a6b">true</Used_x0020_in_x0020_Chapter>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE7710A0-3E47-4582-AEA5-39F1D0DC409A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5163,4 +6518,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93500E59-78EE-48D4-AA52-7DA38FAD0A32}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96C007-0B6E-48A2-8994-8B6C31AB568A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d1607db4-bd3f-4f82-a312-bf7e283d0a6b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/DZ_5/Семинар5_задание3.xlsx
+++ b/DZ_5/Семинар5_задание3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dmitrii Sutyagin\Desktop\Новая папка\Mytraining\Excel\DZ_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2583E4CE-8B52-4706-AC48-BD4DB6149574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCEA441-6364-4A39-BF91-F9947239F955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -114,7 +114,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -130,9 +130,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1438,10 +1435,10 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3EA1EF0A-9A10-42DF-8FFA-3F1A7E17BF46}" name="Сводная таблица1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A4:B180" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3EA1EF0A-9A10-42DF-8FFA-3F1A7E17BF46}" name="Сводная таблица1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A4:B93" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="4">
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField axis="axisRow" showAll="0" measureFilter="1">
       <items count="154">
         <item x="133"/>
         <item x="20"/>
@@ -1599,7 +1596,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" dataField="1" numFmtId="165" showAll="0" measureFilter="1">
+    <pivotField dataField="1" numFmtId="165" showAll="0">
       <items count="156">
         <item x="135"/>
         <item x="120"/>
@@ -1781,535 +1778,273 @@
       </items>
     </pivotField>
   </pivotFields>
-  <rowFields count="2">
+  <rowFields count="1">
     <field x="0"/>
-    <field x="1"/>
   </rowFields>
-  <rowItems count="176">
+  <rowItems count="89">
+    <i>
+      <x v="21"/>
+    </i>
     <i>
       <x v="41"/>
     </i>
-    <i r="1">
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
       <x v="55"/>
     </i>
     <i>
-      <x v="42"/>
-    </i>
-    <i r="1">
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
       <x v="59"/>
     </i>
     <i>
-      <x v="48"/>
-    </i>
-    <i r="1">
-      <x v="64"/>
-    </i>
-    <i>
-      <x v="49"/>
-    </i>
-    <i r="1">
-      <x v="60"/>
-    </i>
-    <i>
-      <x v="51"/>
-    </i>
-    <i r="1">
-      <x v="57"/>
-    </i>
-    <i>
-      <x v="52"/>
-    </i>
-    <i r="1">
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
       <x v="69"/>
     </i>
     <i>
-      <x v="53"/>
-    </i>
-    <i r="1">
-      <x v="58"/>
-    </i>
-    <i>
-      <x v="55"/>
-    </i>
-    <i r="1">
-      <x v="63"/>
-    </i>
-    <i>
-      <x v="56"/>
-    </i>
-    <i r="1">
-      <x v="56"/>
-    </i>
-    <i>
-      <x v="57"/>
-    </i>
-    <i r="1">
-      <x v="65"/>
-    </i>
-    <i>
-      <x v="59"/>
-    </i>
-    <i r="1">
+      <x v="70"/>
+    </i>
+    <i>
       <x v="71"/>
     </i>
     <i>
-      <x v="61"/>
-    </i>
-    <i r="1">
-      <x v="54"/>
-    </i>
-    <i>
-      <x v="65"/>
-    </i>
-    <i r="1">
-      <x v="61"/>
-    </i>
-    <i>
-      <x v="66"/>
-    </i>
-    <i r="1">
-      <x v="66"/>
-    </i>
-    <i>
-      <x v="67"/>
-    </i>
-    <i r="1">
       <x v="72"/>
     </i>
     <i>
-      <x v="68"/>
-    </i>
-    <i r="1">
-      <x v="67"/>
-    </i>
-    <i>
-      <x v="69"/>
-    </i>
-    <i r="1">
+      <x v="73"/>
+    </i>
+    <i>
+      <x v="74"/>
+    </i>
+    <i>
+      <x v="75"/>
+    </i>
+    <i>
+      <x v="76"/>
+    </i>
+    <i>
       <x v="77"/>
     </i>
     <i>
-      <x v="70"/>
-    </i>
-    <i r="1">
+      <x v="78"/>
+    </i>
+    <i>
+      <x v="79"/>
+    </i>
+    <i>
+      <x v="80"/>
+    </i>
+    <i>
+      <x v="81"/>
+    </i>
+    <i>
+      <x v="82"/>
+    </i>
+    <i>
+      <x v="83"/>
+    </i>
+    <i>
+      <x v="84"/>
+    </i>
+    <i>
+      <x v="85"/>
+    </i>
+    <i>
+      <x v="86"/>
+    </i>
+    <i>
       <x v="87"/>
     </i>
     <i>
-      <x v="71"/>
-    </i>
-    <i r="1">
-      <x v="68"/>
-    </i>
-    <i>
-      <x v="72"/>
-    </i>
-    <i r="1">
-      <x v="83"/>
-    </i>
-    <i>
-      <x v="73"/>
-    </i>
-    <i r="1">
-      <x v="62"/>
-    </i>
-    <i>
-      <x v="74"/>
-    </i>
-    <i r="1">
-      <x v="70"/>
-    </i>
-    <i>
-      <x v="75"/>
-    </i>
-    <i r="1">
-      <x v="75"/>
-    </i>
-    <i>
-      <x v="76"/>
-    </i>
-    <i r="1">
-      <x v="76"/>
-    </i>
-    <i>
-      <x v="77"/>
-    </i>
-    <i r="1">
+      <x v="88"/>
+    </i>
+    <i>
+      <x v="89"/>
+    </i>
+    <i>
+      <x v="90"/>
+    </i>
+    <i>
+      <x v="91"/>
+    </i>
+    <i>
+      <x v="92"/>
+    </i>
+    <i>
       <x v="93"/>
     </i>
     <i>
-      <x v="78"/>
-    </i>
-    <i r="1">
-      <x v="82"/>
-    </i>
-    <i>
-      <x v="79"/>
-    </i>
-    <i r="1">
-      <x v="74"/>
-    </i>
-    <i>
-      <x v="80"/>
-    </i>
-    <i r="1">
-      <x v="90"/>
-    </i>
-    <i>
-      <x v="81"/>
-    </i>
-    <i r="1">
-      <x v="73"/>
-    </i>
-    <i>
-      <x v="82"/>
-    </i>
-    <i r="1">
-      <x v="81"/>
-    </i>
-    <i>
-      <x v="83"/>
-    </i>
-    <i r="1">
-      <x v="80"/>
-    </i>
-    <i>
-      <x v="84"/>
-    </i>
-    <i r="1">
-      <x v="79"/>
-    </i>
-    <i>
-      <x v="85"/>
-    </i>
-    <i r="1">
+      <x v="94"/>
+    </i>
+    <i>
+      <x v="95"/>
+    </i>
+    <i>
+      <x v="96"/>
+    </i>
+    <i>
+      <x v="97"/>
+    </i>
+    <i>
+      <x v="98"/>
+    </i>
+    <i>
+      <x v="99"/>
+    </i>
+    <i>
+      <x v="100"/>
+    </i>
+    <i>
+      <x v="101"/>
+    </i>
+    <i>
+      <x v="102"/>
+    </i>
+    <i>
+      <x v="103"/>
+    </i>
+    <i>
+      <x v="104"/>
+    </i>
+    <i>
+      <x v="105"/>
+    </i>
+    <i>
+      <x v="106"/>
+    </i>
+    <i>
+      <x v="107"/>
+    </i>
+    <i>
+      <x v="108"/>
+    </i>
+    <i>
       <x v="109"/>
     </i>
     <i>
-      <x v="86"/>
-    </i>
-    <i r="1">
-      <x v="84"/>
-    </i>
-    <i>
-      <x v="87"/>
-    </i>
-    <i r="1">
-      <x v="78"/>
-    </i>
-    <i>
-      <x v="88"/>
-    </i>
-    <i r="1">
-      <x v="89"/>
-    </i>
-    <i>
-      <x v="89"/>
-    </i>
-    <i r="1">
-      <x v="98"/>
-    </i>
-    <i>
-      <x v="90"/>
-    </i>
-    <i r="1">
-      <x v="96"/>
-    </i>
-    <i>
-      <x v="91"/>
-    </i>
-    <i r="1">
-      <x v="106"/>
-    </i>
-    <i>
-      <x v="92"/>
-    </i>
-    <i r="1">
-      <x v="108"/>
-    </i>
-    <i>
-      <x v="93"/>
-    </i>
-    <i r="1">
-      <x v="92"/>
-    </i>
-    <i>
-      <x v="94"/>
-    </i>
-    <i r="1">
-      <x v="85"/>
-    </i>
-    <i>
-      <x v="95"/>
-    </i>
-    <i r="1">
-      <x v="107"/>
-    </i>
-    <i>
-      <x v="96"/>
-    </i>
-    <i r="1">
-      <x v="100"/>
-    </i>
-    <i>
-      <x v="97"/>
-    </i>
-    <i r="1">
-      <x v="86"/>
-    </i>
-    <i>
-      <x v="98"/>
-    </i>
-    <i r="1">
-      <x v="88"/>
-    </i>
-    <i>
-      <x v="99"/>
-    </i>
-    <i r="1">
-      <x v="105"/>
-    </i>
-    <i>
-      <x v="100"/>
-    </i>
-    <i r="1">
+      <x v="110"/>
+    </i>
+    <i>
+      <x v="111"/>
+    </i>
+    <i>
+      <x v="112"/>
+    </i>
+    <i>
+      <x v="113"/>
+    </i>
+    <i>
+      <x v="114"/>
+    </i>
+    <i>
       <x v="117"/>
     </i>
     <i>
-      <x v="101"/>
-    </i>
-    <i r="1">
-      <x v="94"/>
-    </i>
-    <i>
-      <x v="102"/>
-    </i>
-    <i r="1">
-      <x v="103"/>
-    </i>
-    <i>
-      <x v="103"/>
-    </i>
-    <i r="1">
-      <x v="110"/>
-    </i>
-    <i>
-      <x v="104"/>
-    </i>
-    <i r="1">
-      <x v="102"/>
-    </i>
-    <i>
-      <x v="105"/>
-    </i>
-    <i r="1">
-      <x v="95"/>
-    </i>
-    <i>
-      <x v="106"/>
-    </i>
-    <i r="1">
-      <x v="99"/>
-    </i>
-    <i>
-      <x v="107"/>
-    </i>
-    <i r="1">
-      <x v="101"/>
-    </i>
-    <i>
-      <x v="108"/>
-    </i>
-    <i r="1">
-      <x v="97"/>
-    </i>
-    <i>
-      <x v="109"/>
-    </i>
-    <i r="1">
-      <x v="114"/>
-    </i>
-    <i>
-      <x v="110"/>
-    </i>
-    <i r="1">
-      <x v="91"/>
-    </i>
-    <i>
-      <x v="111"/>
-    </i>
-    <i r="1">
-      <x v="113"/>
-    </i>
-    <i>
-      <x v="112"/>
-    </i>
-    <i r="1">
-      <x v="129"/>
-    </i>
-    <i>
-      <x v="113"/>
-    </i>
-    <i r="1">
-      <x v="104"/>
-    </i>
-    <i>
-      <x v="114"/>
-    </i>
-    <i r="1">
+      <x v="119"/>
+    </i>
+    <i>
+      <x v="120"/>
+    </i>
+    <i>
+      <x v="121"/>
+    </i>
+    <i>
+      <x v="123"/>
+    </i>
+    <i>
+      <x v="124"/>
+    </i>
+    <i>
+      <x v="125"/>
+    </i>
+    <i>
+      <x v="127"/>
+    </i>
+    <i>
       <x v="130"/>
     </i>
     <i>
-      <x v="117"/>
-    </i>
-    <i r="1">
-      <x v="119"/>
-    </i>
-    <i>
-      <x v="119"/>
-    </i>
-    <i r="1">
-      <x v="123"/>
-    </i>
-    <i>
-      <x v="120"/>
-    </i>
-    <i r="1">
-      <x v="118"/>
-    </i>
-    <i>
-      <x v="121"/>
-    </i>
-    <i r="1">
-      <x v="121"/>
-    </i>
-    <i>
-      <x v="123"/>
-    </i>
-    <i r="1">
+      <x v="131"/>
+    </i>
+    <i>
+      <x v="132"/>
+    </i>
+    <i>
+      <x v="135"/>
+    </i>
+    <i>
+      <x v="137"/>
+    </i>
+    <i>
+      <x v="138"/>
+    </i>
+    <i>
       <x v="139"/>
     </i>
     <i>
-      <x v="124"/>
-    </i>
-    <i r="1">
-      <x v="131"/>
-    </i>
-    <i>
-      <x v="125"/>
-    </i>
-    <i r="1">
-      <x v="111"/>
-    </i>
-    <i>
-      <x v="127"/>
-    </i>
-    <i r="1">
-      <x v="122"/>
-    </i>
-    <i>
-      <x v="130"/>
-    </i>
-    <i r="1">
-      <x v="120"/>
-    </i>
-    <i>
-      <x v="131"/>
-    </i>
-    <i r="1">
-      <x v="132"/>
-    </i>
-    <i>
-      <x v="132"/>
-    </i>
-    <i r="1">
+      <x v="140"/>
+    </i>
+    <i>
       <x v="142"/>
     </i>
     <i>
-      <x v="135"/>
-    </i>
-    <i r="1">
-      <x v="124"/>
-    </i>
-    <i>
-      <x v="137"/>
-    </i>
-    <i r="1">
       <x v="145"/>
     </i>
     <i>
-      <x v="138"/>
-    </i>
-    <i r="1">
+      <x v="146"/>
+    </i>
+    <i>
+      <x v="147"/>
+    </i>
+    <i>
+      <x v="148"/>
+    </i>
+    <i>
       <x v="149"/>
     </i>
     <i>
-      <x v="139"/>
-    </i>
-    <i r="1">
-      <x v="128"/>
-    </i>
-    <i>
-      <x v="140"/>
-    </i>
-    <i r="1">
-      <x v="137"/>
-    </i>
-    <i>
-      <x v="142"/>
-    </i>
-    <i r="1">
-      <x v="136"/>
-    </i>
-    <i r="1">
+      <x v="150"/>
+    </i>
+    <i>
+      <x v="151"/>
+    </i>
+    <i>
       <x v="152"/>
-    </i>
-    <i>
-      <x v="145"/>
-    </i>
-    <i r="1">
-      <x v="135"/>
-    </i>
-    <i>
-      <x v="146"/>
-    </i>
-    <i r="1">
-      <x v="127"/>
-    </i>
-    <i>
-      <x v="147"/>
-    </i>
-    <i r="1">
-      <x v="144"/>
-    </i>
-    <i>
-      <x v="148"/>
-    </i>
-    <i r="1">
-      <x v="148"/>
-    </i>
-    <i>
-      <x v="149"/>
-    </i>
-    <i r="1">
-      <x v="134"/>
-    </i>
-    <i>
-      <x v="150"/>
-    </i>
-    <i r="1">
-      <x v="151"/>
-    </i>
-    <i>
-      <x v="151"/>
-    </i>
-    <i r="1">
-      <x v="154"/>
-    </i>
-    <i>
-      <x v="152"/>
-    </i>
-    <i r="1">
-      <x v="150"/>
     </i>
     <i t="grand">
       <x/>
@@ -2327,7 +2062,7 @@
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <filters count="1">
-    <filter fld="1" type="valueGreaterThanOrEqual" evalOrder="-1" id="1" iMeasureFld="0">
+    <filter fld="0" type="valueGreaterThanOrEqual" evalOrder="-1" id="3" iMeasureFld="0">
       <autoFilter ref="A1">
         <filterColumn colId="0">
           <customFilters>
@@ -2669,7 +2404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C70A46AF-ADE1-489D-A139-ED696F21F539}">
-  <dimension ref="A1:B180"/>
+  <dimension ref="A1:B93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -2807,15 +2542,15 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
+        <v>21.12</v>
+      </c>
+      <c r="B5" s="5">
+        <v>4377280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
         <v>26.62</v>
-      </c>
-      <c r="B5" s="5">
-        <v>3034960</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
-        <v>3034960</v>
       </c>
       <c r="B6" s="5">
         <v>3034960</v>
@@ -2830,1387 +2565,691 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
-        <v>3055750</v>
+      <c r="A8" s="7">
+        <v>27.32</v>
       </c>
       <c r="B8" s="5">
-        <v>3055750</v>
+        <v>3137880</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
-        <v>27.32</v>
+        <v>27.61</v>
       </c>
       <c r="B9" s="5">
-        <v>3137880</v>
+        <v>3091440</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
-        <v>3137880</v>
+      <c r="A10" s="7">
+        <v>27.94</v>
       </c>
       <c r="B10" s="5">
-        <v>3137880</v>
+        <v>3049880</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
-        <v>27.61</v>
+        <v>28.04</v>
       </c>
       <c r="B11" s="5">
-        <v>3091440</v>
+        <v>3276360</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
-        <v>3091440</v>
+      <c r="A12" s="7">
+        <v>28.07</v>
       </c>
       <c r="B12" s="5">
-        <v>3091440</v>
+        <v>3051210</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
-        <v>27.94</v>
+        <v>28.31</v>
       </c>
       <c r="B13" s="5">
-        <v>3049880</v>
+        <v>3135930</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
-        <v>3049880</v>
+      <c r="A14" s="7">
+        <v>28.65</v>
       </c>
       <c r="B14" s="5">
-        <v>3049880</v>
+        <v>3045000</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
-        <v>28.04</v>
+        <v>28.68</v>
       </c>
       <c r="B15" s="5">
-        <v>3276360</v>
+        <v>3188760</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="8">
-        <v>3276360</v>
+      <c r="A16" s="7">
+        <v>29.49</v>
       </c>
       <c r="B16" s="5">
-        <v>3276360</v>
+        <v>3286960</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
-        <v>28.07</v>
+        <v>29.58</v>
       </c>
       <c r="B17" s="5">
-        <v>3051210</v>
+        <v>3030100</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
-        <v>3051210</v>
+      <c r="A18" s="7">
+        <v>29.92</v>
       </c>
       <c r="B18" s="5">
-        <v>3051210</v>
+        <v>3112000</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
-        <v>28.31</v>
+        <v>30.36</v>
       </c>
       <c r="B19" s="5">
-        <v>3135930</v>
+        <v>3216000</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
-        <v>3135930</v>
+      <c r="A20" s="7">
+        <v>30.38</v>
       </c>
       <c r="B20" s="5">
-        <v>3135930</v>
+        <v>3339520</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
-        <v>28.65</v>
+        <v>30.91</v>
       </c>
       <c r="B21" s="5">
-        <v>3045000</v>
+        <v>3229180</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="8">
-        <v>3045000</v>
+      <c r="A22" s="7">
+        <v>31.12</v>
       </c>
       <c r="B22" s="5">
-        <v>3045000</v>
+        <v>3465360</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
-        <v>28.68</v>
+        <v>31.23</v>
       </c>
       <c r="B23" s="5">
-        <v>3188760</v>
+        <v>3675300</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="8">
-        <v>3188760</v>
+      <c r="A24" s="7">
+        <v>31.24</v>
       </c>
       <c r="B24" s="5">
-        <v>3188760</v>
+        <v>3261520</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
-        <v>29.49</v>
+        <v>31.77</v>
       </c>
       <c r="B25" s="5">
-        <v>3286960</v>
+        <v>3619390</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="8">
-        <v>3286960</v>
+      <c r="A26" s="7">
+        <v>32.15</v>
       </c>
       <c r="B26" s="5">
-        <v>3286960</v>
+        <v>3125650</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
-        <v>29.58</v>
+        <v>32.36</v>
       </c>
       <c r="B27" s="5">
-        <v>3030100</v>
+        <v>3281840</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="8">
-        <v>3030100</v>
+      <c r="A28" s="7">
+        <v>32.619999999999997</v>
       </c>
       <c r="B28" s="5">
-        <v>3030100</v>
+        <v>3376760</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
-        <v>29.92</v>
+        <v>32.67</v>
       </c>
       <c r="B29" s="5">
-        <v>3112000</v>
+        <v>3421660</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="8">
-        <v>3112000</v>
+      <c r="A30" s="7">
+        <v>33.229999999999997</v>
       </c>
       <c r="B30" s="5">
-        <v>3112000</v>
+        <v>3802380</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
-        <v>30.36</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="B31" s="5">
-        <v>3216000</v>
+        <v>3610000</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="8">
-        <v>3216000</v>
+      <c r="A32" s="7">
+        <v>33.4</v>
       </c>
       <c r="B32" s="5">
-        <v>3216000</v>
+        <v>3366200</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
-        <v>30.38</v>
+        <v>33.56</v>
       </c>
       <c r="B33" s="5">
-        <v>3339520</v>
+        <v>3757360</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="8">
-        <v>3339520</v>
+      <c r="A34" s="7">
+        <v>33.71</v>
       </c>
       <c r="B34" s="5">
-        <v>3339520</v>
+        <v>3348740</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
-        <v>30.91</v>
+        <v>34.119999999999997</v>
       </c>
       <c r="B35" s="5">
-        <v>3229180</v>
+        <v>3589640</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="8">
-        <v>3229180</v>
+      <c r="A36" s="7">
+        <v>34.26</v>
       </c>
       <c r="B36" s="5">
-        <v>3229180</v>
+        <v>3568960</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
-        <v>31.12</v>
+        <v>34.51</v>
       </c>
       <c r="B37" s="5">
-        <v>3465360</v>
+        <v>3489430</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="8">
-        <v>3465360</v>
+      <c r="A38" s="7">
+        <v>34.89</v>
       </c>
       <c r="B38" s="5">
-        <v>3465360</v>
+        <v>4077900</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
-        <v>31.23</v>
+        <v>35.06</v>
       </c>
       <c r="B39" s="5">
-        <v>3675300</v>
+        <v>3635880</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="8">
-        <v>3675300</v>
+      <c r="A40" s="7">
+        <v>35.26</v>
       </c>
       <c r="B40" s="5">
-        <v>3675300</v>
+        <v>3468660</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
-        <v>31.24</v>
+        <v>35.29</v>
       </c>
       <c r="B41" s="5">
-        <v>3261520</v>
+        <v>3703130</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="8">
-        <v>3261520</v>
+      <c r="A42" s="7">
+        <v>35.340000000000003</v>
       </c>
       <c r="B42" s="5">
-        <v>3261520</v>
+        <v>3875360</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
-        <v>31.77</v>
+        <v>35.35</v>
       </c>
       <c r="B43" s="5">
-        <v>3619390</v>
+        <v>3861050</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="8">
-        <v>3619390</v>
+      <c r="A44" s="7">
+        <v>35.479999999999997</v>
       </c>
       <c r="B44" s="5">
-        <v>3619390</v>
+        <v>4031840</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
-        <v>32.15</v>
+        <v>35.57</v>
       </c>
       <c r="B45" s="5">
-        <v>3125650</v>
+        <v>4050420</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="8">
-        <v>3125650</v>
+      <c r="A46" s="7">
+        <v>35.74</v>
       </c>
       <c r="B46" s="5">
-        <v>3125650</v>
+        <v>3789740</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
-        <v>32.36</v>
+        <v>35.770000000000003</v>
       </c>
       <c r="B47" s="5">
-        <v>3281840</v>
+        <v>3642380</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="8">
-        <v>3281840</v>
+      <c r="A48" s="7">
+        <v>35.78</v>
       </c>
       <c r="B48" s="5">
-        <v>3281840</v>
+        <v>4044240</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
-        <v>32.619999999999997</v>
+        <v>36.520000000000003</v>
       </c>
       <c r="B49" s="5">
-        <v>3376760</v>
+        <v>3895480</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="8">
-        <v>3376760</v>
+      <c r="A50" s="7">
+        <v>36.92</v>
       </c>
       <c r="B50" s="5">
-        <v>3376760</v>
+        <v>3653560</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
-        <v>32.67</v>
+        <v>37.159999999999997</v>
       </c>
       <c r="B51" s="5">
-        <v>3421660</v>
+        <v>3698720</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="8">
-        <v>3421660</v>
+      <c r="A52" s="7">
+        <v>37.25</v>
       </c>
       <c r="B52" s="5">
-        <v>3421660</v>
+        <v>4005000</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
-        <v>33.229999999999997</v>
+        <v>37.26</v>
       </c>
       <c r="B53" s="5">
-        <v>3802380</v>
+        <v>4338600</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="8">
-        <v>3802380</v>
+      <c r="A54" s="7">
+        <v>37.42</v>
       </c>
       <c r="B54" s="5">
-        <v>3802380</v>
+        <v>3814900</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
-        <v>33.299999999999997</v>
+        <v>37.479999999999997</v>
       </c>
       <c r="B55" s="5">
-        <v>3610000</v>
+        <v>3953040</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="8">
-        <v>3610000</v>
+      <c r="A56" s="7">
+        <v>37.799999999999997</v>
       </c>
       <c r="B56" s="5">
-        <v>3610000</v>
+        <v>4115600</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
-        <v>33.4</v>
+        <v>38.65</v>
       </c>
       <c r="B57" s="5">
-        <v>3366200</v>
+        <v>3951750</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="8">
-        <v>3366200</v>
+      <c r="A58" s="7">
+        <v>38.94</v>
       </c>
       <c r="B58" s="5">
-        <v>3366200</v>
+        <v>3842480</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
-        <v>33.56</v>
+        <v>39.03</v>
       </c>
       <c r="B59" s="5">
-        <v>3757360</v>
+        <v>3887850</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="8">
-        <v>3757360</v>
+      <c r="A60" s="7">
+        <v>39.229999999999997</v>
       </c>
       <c r="B60" s="5">
-        <v>3757360</v>
+        <v>3908390</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
-        <v>33.71</v>
+        <v>39.630000000000003</v>
       </c>
       <c r="B61" s="5">
-        <v>3348740</v>
+        <v>3865960</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="8">
-        <v>3348740</v>
+      <c r="A62" s="7">
+        <v>39.68</v>
       </c>
       <c r="B62" s="5">
-        <v>3348740</v>
+        <v>4287360</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
-        <v>34.119999999999997</v>
+        <v>39.72</v>
       </c>
       <c r="B63" s="5">
-        <v>3589640</v>
+        <v>3774800</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="8">
-        <v>3589640</v>
+      <c r="A64" s="7">
+        <v>39.9</v>
       </c>
       <c r="B64" s="5">
-        <v>3589640</v>
+        <v>4250000</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
-        <v>34.26</v>
+        <v>40.159999999999997</v>
       </c>
       <c r="B65" s="5">
-        <v>3568960</v>
+        <v>4536960</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="8">
-        <v>3568960</v>
+      <c r="A66" s="7">
+        <v>40.24</v>
       </c>
       <c r="B66" s="5">
-        <v>3568960</v>
+        <v>3982080</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
-        <v>34.51</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="B67" s="5">
-        <v>3489430</v>
+        <v>4612100</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="8">
-        <v>3489430</v>
+      <c r="A68" s="7">
+        <v>40.93</v>
       </c>
       <c r="B68" s="5">
-        <v>3489430</v>
+        <v>4352070</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="7">
-        <v>34.89</v>
+        <v>41.08</v>
       </c>
       <c r="B69" s="5">
-        <v>4077900</v>
+        <v>4409080</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="8">
-        <v>4077900</v>
+      <c r="A70" s="7">
+        <v>41.44</v>
       </c>
       <c r="B70" s="5">
-        <v>4077900</v>
+        <v>4341120</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="7">
-        <v>35.06</v>
+        <v>42.61</v>
       </c>
       <c r="B71" s="5">
-        <v>3635880</v>
+        <v>4373170</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="8">
-        <v>3635880</v>
+      <c r="A72" s="7">
+        <v>42.79</v>
       </c>
       <c r="B72" s="5">
-        <v>3635880</v>
+        <v>4750160</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="7">
-        <v>35.26</v>
+        <v>42.94</v>
       </c>
       <c r="B73" s="5">
-        <v>3468660</v>
+        <v>4616940</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="8">
-        <v>3468660</v>
+      <c r="A74" s="7">
+        <v>43.16</v>
       </c>
       <c r="B74" s="5">
-        <v>3468660</v>
+        <v>4230720</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="7">
-        <v>35.29</v>
+        <v>43.26</v>
       </c>
       <c r="B75" s="5">
-        <v>3703130</v>
+        <v>4392960</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="8">
-        <v>3703130</v>
+      <c r="A76" s="7">
+        <v>43.63</v>
       </c>
       <c r="B76" s="5">
-        <v>3703130</v>
+        <v>4357590</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="7">
-        <v>35.340000000000003</v>
+        <v>44.06</v>
       </c>
       <c r="B77" s="5">
-        <v>3875360</v>
+        <v>4617880</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="8">
-        <v>3875360</v>
+      <c r="A78" s="7">
+        <v>44.41</v>
       </c>
       <c r="B78" s="5">
-        <v>3875360</v>
+        <v>4874230</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="7">
-        <v>35.35</v>
+        <v>44.66</v>
       </c>
       <c r="B79" s="5">
-        <v>3861050</v>
+        <v>4453380</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="8">
-        <v>3861050</v>
+      <c r="A80" s="7">
+        <v>45.08</v>
       </c>
       <c r="B80" s="5">
-        <v>3861050</v>
+        <v>4923240</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="7">
-        <v>35.479999999999997</v>
+        <v>45.26</v>
       </c>
       <c r="B81" s="5">
-        <v>4031840</v>
+        <v>5052300</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="8">
-        <v>4031840</v>
+      <c r="A82" s="7">
+        <v>45.48</v>
       </c>
       <c r="B82" s="5">
-        <v>4031840</v>
+        <v>4529640</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="7">
-        <v>35.57</v>
+        <v>46</v>
       </c>
       <c r="B83" s="5">
-        <v>4050420</v>
+        <v>4702000</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="8">
-        <v>4050420</v>
+      <c r="A84" s="7">
+        <v>46.27</v>
       </c>
       <c r="B84" s="5">
-        <v>4050420</v>
+        <v>9860270</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="7">
-        <v>35.74</v>
+        <v>46.88</v>
       </c>
       <c r="B85" s="5">
-        <v>3789740</v>
+        <v>4659840</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="8">
-        <v>3789740</v>
+      <c r="A86" s="7">
+        <v>47.3</v>
       </c>
       <c r="B86" s="5">
-        <v>3789740</v>
+        <v>4517000</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="7">
-        <v>35.770000000000003</v>
+        <v>47.42</v>
       </c>
       <c r="B87" s="5">
-        <v>3642380</v>
+        <v>4907160</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="8">
-        <v>3642380</v>
+      <c r="A88" s="7">
+        <v>47.78</v>
       </c>
       <c r="B88" s="5">
-        <v>3642380</v>
+        <v>5038000</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="7">
-        <v>35.78</v>
+        <v>48.05</v>
       </c>
       <c r="B89" s="5">
-        <v>4044240</v>
+        <v>4632550</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="8">
-        <v>4044240</v>
+      <c r="A90" s="7">
+        <v>48.65</v>
       </c>
       <c r="B90" s="5">
-        <v>4044240</v>
+        <v>5067700</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="7">
-        <v>36.520000000000003</v>
+        <v>49.3</v>
       </c>
       <c r="B91" s="5">
-        <v>3895480</v>
+        <v>5515100</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="8">
-        <v>3895480</v>
+      <c r="A92" s="7">
+        <v>49.75</v>
       </c>
       <c r="B92" s="5">
-        <v>3895480</v>
+        <v>5056000</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="7">
-        <v>36.92</v>
+      <c r="A93" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B93" s="5">
-        <v>3653560</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="8">
-        <v>3653560</v>
-      </c>
-      <c r="B94" s="5">
-        <v>3653560</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="7">
-        <v>37.159999999999997</v>
-      </c>
-      <c r="B95" s="5">
-        <v>3698720</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="8">
-        <v>3698720</v>
-      </c>
-      <c r="B96" s="5">
-        <v>3698720</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="7">
-        <v>37.25</v>
-      </c>
-      <c r="B97" s="5">
-        <v>4005000</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="8">
-        <v>4005000</v>
-      </c>
-      <c r="B98" s="5">
-        <v>4005000</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="7">
-        <v>37.26</v>
-      </c>
-      <c r="B99" s="5">
-        <v>4338600</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="8">
-        <v>4338600</v>
-      </c>
-      <c r="B100" s="5">
-        <v>4338600</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="7">
-        <v>37.42</v>
-      </c>
-      <c r="B101" s="5">
-        <v>3814900</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="8">
-        <v>3814900</v>
-      </c>
-      <c r="B102" s="5">
-        <v>3814900</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="7">
-        <v>37.479999999999997</v>
-      </c>
-      <c r="B103" s="5">
-        <v>3953040</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="8">
-        <v>3953040</v>
-      </c>
-      <c r="B104" s="5">
-        <v>3953040</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="7">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="B105" s="5">
-        <v>4115600</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="8">
-        <v>4115600</v>
-      </c>
-      <c r="B106" s="5">
-        <v>4115600</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="7">
-        <v>38.65</v>
-      </c>
-      <c r="B107" s="5">
-        <v>3951750</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="8">
-        <v>3951750</v>
-      </c>
-      <c r="B108" s="5">
-        <v>3951750</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="7">
-        <v>38.94</v>
-      </c>
-      <c r="B109" s="5">
-        <v>3842480</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="8">
-        <v>3842480</v>
-      </c>
-      <c r="B110" s="5">
-        <v>3842480</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="7">
-        <v>39.03</v>
-      </c>
-      <c r="B111" s="5">
-        <v>3887850</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="8">
-        <v>3887850</v>
-      </c>
-      <c r="B112" s="5">
-        <v>3887850</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="7">
-        <v>39.229999999999997</v>
-      </c>
-      <c r="B113" s="5">
-        <v>3908390</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="8">
-        <v>3908390</v>
-      </c>
-      <c r="B114" s="5">
-        <v>3908390</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="7">
-        <v>39.630000000000003</v>
-      </c>
-      <c r="B115" s="5">
-        <v>3865960</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="8">
-        <v>3865960</v>
-      </c>
-      <c r="B116" s="5">
-        <v>3865960</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="7">
-        <v>39.68</v>
-      </c>
-      <c r="B117" s="5">
-        <v>4287360</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="8">
-        <v>4287360</v>
-      </c>
-      <c r="B118" s="5">
-        <v>4287360</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="7">
-        <v>39.72</v>
-      </c>
-      <c r="B119" s="5">
-        <v>3774800</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="8">
-        <v>3774800</v>
-      </c>
-      <c r="B120" s="5">
-        <v>3774800</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" s="7">
-        <v>39.9</v>
-      </c>
-      <c r="B121" s="5">
-        <v>4250000</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" s="8">
-        <v>4250000</v>
-      </c>
-      <c r="B122" s="5">
-        <v>4250000</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" s="7">
-        <v>40.159999999999997</v>
-      </c>
-      <c r="B123" s="5">
-        <v>4536960</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" s="8">
-        <v>4536960</v>
-      </c>
-      <c r="B124" s="5">
-        <v>4536960</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" s="7">
-        <v>40.24</v>
-      </c>
-      <c r="B125" s="5">
-        <v>3982080</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" s="8">
-        <v>3982080</v>
-      </c>
-      <c r="B126" s="5">
-        <v>3982080</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" s="7">
-        <v>40.299999999999997</v>
-      </c>
-      <c r="B127" s="5">
-        <v>4612100</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" s="8">
-        <v>4612100</v>
-      </c>
-      <c r="B128" s="5">
-        <v>4612100</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" s="7">
-        <v>40.93</v>
-      </c>
-      <c r="B129" s="5">
-        <v>4352070</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" s="8">
-        <v>4352070</v>
-      </c>
-      <c r="B130" s="5">
-        <v>4352070</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" s="7">
-        <v>41.08</v>
-      </c>
-      <c r="B131" s="5">
-        <v>4409080</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" s="8">
-        <v>4409080</v>
-      </c>
-      <c r="B132" s="5">
-        <v>4409080</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" s="7">
-        <v>41.44</v>
-      </c>
-      <c r="B133" s="5">
-        <v>4341120</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" s="8">
-        <v>4341120</v>
-      </c>
-      <c r="B134" s="5">
-        <v>4341120</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" s="7">
-        <v>42.61</v>
-      </c>
-      <c r="B135" s="5">
-        <v>4373170</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" s="8">
-        <v>4373170</v>
-      </c>
-      <c r="B136" s="5">
-        <v>4373170</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" s="7">
-        <v>42.79</v>
-      </c>
-      <c r="B137" s="5">
-        <v>4750160</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" s="8">
-        <v>4750160</v>
-      </c>
-      <c r="B138" s="5">
-        <v>4750160</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" s="7">
-        <v>42.94</v>
-      </c>
-      <c r="B139" s="5">
-        <v>4616940</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" s="8">
-        <v>4616940</v>
-      </c>
-      <c r="B140" s="5">
-        <v>4616940</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" s="7">
-        <v>43.16</v>
-      </c>
-      <c r="B141" s="5">
-        <v>4230720</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" s="8">
-        <v>4230720</v>
-      </c>
-      <c r="B142" s="5">
-        <v>4230720</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" s="7">
-        <v>43.26</v>
-      </c>
-      <c r="B143" s="5">
-        <v>4392960</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" s="8">
-        <v>4392960</v>
-      </c>
-      <c r="B144" s="5">
-        <v>4392960</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" s="7">
-        <v>43.63</v>
-      </c>
-      <c r="B145" s="5">
-        <v>4357590</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" s="8">
-        <v>4357590</v>
-      </c>
-      <c r="B146" s="5">
-        <v>4357590</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" s="7">
-        <v>44.06</v>
-      </c>
-      <c r="B147" s="5">
-        <v>4617880</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" s="8">
-        <v>4617880</v>
-      </c>
-      <c r="B148" s="5">
-        <v>4617880</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" s="7">
-        <v>44.41</v>
-      </c>
-      <c r="B149" s="5">
-        <v>4874230</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" s="8">
-        <v>4874230</v>
-      </c>
-      <c r="B150" s="5">
-        <v>4874230</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" s="7">
-        <v>44.66</v>
-      </c>
-      <c r="B151" s="5">
-        <v>4453380</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" s="8">
-        <v>4453380</v>
-      </c>
-      <c r="B152" s="5">
-        <v>4453380</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" s="7">
-        <v>45.08</v>
-      </c>
-      <c r="B153" s="5">
-        <v>4923240</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" s="8">
-        <v>4923240</v>
-      </c>
-      <c r="B154" s="5">
-        <v>4923240</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" s="7">
-        <v>45.26</v>
-      </c>
-      <c r="B155" s="5">
-        <v>5052300</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" s="8">
-        <v>5052300</v>
-      </c>
-      <c r="B156" s="5">
-        <v>5052300</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157" s="7">
-        <v>45.48</v>
-      </c>
-      <c r="B157" s="5">
-        <v>4529640</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158" s="8">
-        <v>4529640</v>
-      </c>
-      <c r="B158" s="5">
-        <v>4529640</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" s="7">
-        <v>46</v>
-      </c>
-      <c r="B159" s="5">
-        <v>4702000</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" s="8">
-        <v>4702000</v>
-      </c>
-      <c r="B160" s="5">
-        <v>4702000</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161" s="7">
-        <v>46.27</v>
-      </c>
-      <c r="B161" s="5">
-        <v>9860270</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162" s="8">
-        <v>4701920</v>
-      </c>
-      <c r="B162" s="5">
-        <v>4701920</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" s="8">
-        <v>5158350</v>
-      </c>
-      <c r="B163" s="5">
-        <v>5158350</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164" s="7">
-        <v>46.88</v>
-      </c>
-      <c r="B164" s="5">
-        <v>4659840</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165" s="8">
-        <v>4659840</v>
-      </c>
-      <c r="B165" s="5">
-        <v>4659840</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166" s="7">
-        <v>47.3</v>
-      </c>
-      <c r="B166" s="5">
-        <v>4517000</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167" s="8">
-        <v>4517000</v>
-      </c>
-      <c r="B167" s="5">
-        <v>4517000</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168" s="7">
-        <v>47.42</v>
-      </c>
-      <c r="B168" s="5">
-        <v>4907160</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169" s="8">
-        <v>4907160</v>
-      </c>
-      <c r="B169" s="5">
-        <v>4907160</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A170" s="7">
-        <v>47.78</v>
-      </c>
-      <c r="B170" s="5">
-        <v>5038000</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171" s="8">
-        <v>5038000</v>
-      </c>
-      <c r="B171" s="5">
-        <v>5038000</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A172" s="7">
-        <v>48.05</v>
-      </c>
-      <c r="B172" s="5">
-        <v>4632550</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173" s="8">
-        <v>4632550</v>
-      </c>
-      <c r="B173" s="5">
-        <v>4632550</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A174" s="7">
-        <v>48.65</v>
-      </c>
-      <c r="B174" s="5">
-        <v>5067700</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A175" s="8">
-        <v>5067700</v>
-      </c>
-      <c r="B175" s="5">
-        <v>5067700</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A176" s="7">
-        <v>49.3</v>
-      </c>
-      <c r="B176" s="5">
-        <v>5515100</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A177" s="8">
-        <v>5515100</v>
-      </c>
-      <c r="B177" s="5">
-        <v>5515100</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A178" s="7">
-        <v>49.75</v>
-      </c>
-      <c r="B178" s="5">
-        <v>5056000</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A179" s="8">
-        <v>5056000</v>
-      </c>
-      <c r="B179" s="5">
-        <v>5056000</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A180" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B180" s="5">
-        <v>346826450</v>
+        <v>351203730</v>
       </c>
     </row>
   </sheetData>
@@ -6427,6 +5466,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <Used_x0020_in_x0020_Chapter xmlns="d1607db4-bd3f-4f82-a312-bf7e283d0a6b">true</Used_x0020_in_x0020_Chapter>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AF8E4BBD310ADB419B3C5F1ACE4D113D" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="63e1bd94a874076348984a0131457edc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d1607db4-bd3f-4f82-a312-bf7e283d0a6b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c9989741aedae2f07a76d9f40ef2a18" ns2:_="">
     <xsd:import namespace="d1607db4-bd3f-4f82-a312-bf7e283d0a6b"/>
@@ -6486,24 +5542,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96C007-0B6E-48A2-8994-8B6C31AB568A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d1607db4-bd3f-4f82-a312-bf7e283d0a6b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <Used_x0020_in_x0020_Chapter xmlns="d1607db4-bd3f-4f82-a312-bf7e283d0a6b">true</Used_x0020_in_x0020_Chapter>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93500E59-78EE-48D4-AA52-7DA38FAD0A32}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE7710A0-3E47-4582-AEA5-39F1D0DC409A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6518,21 +5574,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93500E59-78EE-48D4-AA52-7DA38FAD0A32}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96C007-0B6E-48A2-8994-8B6C31AB568A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="d1607db4-bd3f-4f82-a312-bf7e283d0a6b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/DZ_5/Семинар5_задание3.xlsx
+++ b/DZ_5/Семинар5_задание3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dmitrii Sutyagin\Desktop\Новая папка\Mytraining\Excel\DZ_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCEA441-6364-4A39-BF91-F9947239F955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47556F1A-01BE-4D11-B888-58DED2407634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,11 +16,24 @@
     <sheet name="Лист1" sheetId="2" r:id="rId1"/>
     <sheet name="Данные" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="Срез_Ванные">#N/A</definedName>
+    <definedName name="Срез_Спальни">#N/A</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId4"/>
+        <x14:slicerCache r:id="rId5"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -33,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Площадь</t>
   </si>
@@ -54,12 +67,6 @@
   </si>
   <si>
     <t>Общий итог</t>
-  </si>
-  <si>
-    <t>(Все)</t>
-  </si>
-  <si>
-    <t>(несколько элементов)</t>
   </si>
 </sst>
 </file>
@@ -114,7 +121,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -130,6 +137,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -147,6 +160,167 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Спальни 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4C3100E-F429-4C4D-9235-550D0C56BC93}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Спальни 1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3438525" y="466725"/>
+              <a:ext cx="1828800" cy="2381250"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100"/>
+                <a:t>Эта фигура представляет срез. Срезы поддерживаются только в Excel 2010 и более поздних версиях.
+Если фигура была изменена в более ранней версии Excel или книга была сохранена в Excel 2003 или более ранней версии, использование среза невозможно.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Ванные 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D253957F-40B1-4048-BF20-65034E8DF8D0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Ванные 1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5829300" y="552450"/>
+              <a:ext cx="1828800" cy="2381250"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100"/>
+                <a:t>Эта фигура представляет срез. Срезы поддерживаются только в Excel 2010 и более поздних версиях.
+Если фигура была изменена в более ранней версии Excel или книга была сохранена в Excel 2003 или более ранней версии, использование среза невозможно.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -493,7 +667,7 @@
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
+      <x14:pivotCacheDefinition pivotCacheId="2108712228"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -1436,7 +1610,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3EA1EF0A-9A10-42DF-8FFA-3F1A7E17BF46}" name="Сводная таблица1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A4:B93" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <location ref="A4:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0" measureFilter="1">
       <items count="154">
@@ -1756,295 +1930,60 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
       <items count="6">
-        <item x="4"/>
+        <item h="1" x="4"/>
         <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
       <items count="7">
-        <item x="5"/>
-        <item x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
         <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
         <item h="1" x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
   </pivotFields>
-  <rowFields count="1">
+  <rowFields count="3">
     <field x="0"/>
+    <field x="3"/>
+    <field x="2"/>
   </rowFields>
-  <rowItems count="89">
-    <i>
-      <x v="21"/>
-    </i>
+  <rowItems count="10">
     <i>
       <x v="41"/>
     </i>
-    <i>
-      <x v="42"/>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
     </i>
     <i>
       <x v="48"/>
     </i>
-    <i>
-      <x v="49"/>
+    <i r="1">
+      <x v="2"/>
     </i>
-    <i>
-      <x v="51"/>
-    </i>
-    <i>
-      <x v="52"/>
+    <i r="2">
+      <x v="1"/>
     </i>
     <i>
       <x v="53"/>
     </i>
-    <i>
-      <x v="55"/>
+    <i r="1">
+      <x v="2"/>
     </i>
-    <i>
-      <x v="56"/>
-    </i>
-    <i>
-      <x v="57"/>
-    </i>
-    <i>
-      <x v="59"/>
-    </i>
-    <i>
-      <x v="61"/>
-    </i>
-    <i>
-      <x v="65"/>
-    </i>
-    <i>
-      <x v="66"/>
-    </i>
-    <i>
-      <x v="67"/>
-    </i>
-    <i>
-      <x v="68"/>
-    </i>
-    <i>
-      <x v="69"/>
-    </i>
-    <i>
-      <x v="70"/>
-    </i>
-    <i>
-      <x v="71"/>
-    </i>
-    <i>
-      <x v="72"/>
-    </i>
-    <i>
-      <x v="73"/>
-    </i>
-    <i>
-      <x v="74"/>
-    </i>
-    <i>
-      <x v="75"/>
-    </i>
-    <i>
-      <x v="76"/>
-    </i>
-    <i>
-      <x v="77"/>
-    </i>
-    <i>
-      <x v="78"/>
-    </i>
-    <i>
-      <x v="79"/>
-    </i>
-    <i>
-      <x v="80"/>
-    </i>
-    <i>
-      <x v="81"/>
-    </i>
-    <i>
-      <x v="82"/>
-    </i>
-    <i>
-      <x v="83"/>
-    </i>
-    <i>
-      <x v="84"/>
-    </i>
-    <i>
-      <x v="85"/>
-    </i>
-    <i>
-      <x v="86"/>
-    </i>
-    <i>
-      <x v="87"/>
-    </i>
-    <i>
-      <x v="88"/>
-    </i>
-    <i>
-      <x v="89"/>
-    </i>
-    <i>
-      <x v="90"/>
-    </i>
-    <i>
-      <x v="91"/>
-    </i>
-    <i>
-      <x v="92"/>
-    </i>
-    <i>
-      <x v="93"/>
-    </i>
-    <i>
-      <x v="94"/>
-    </i>
-    <i>
-      <x v="95"/>
-    </i>
-    <i>
-      <x v="96"/>
-    </i>
-    <i>
-      <x v="97"/>
-    </i>
-    <i>
-      <x v="98"/>
-    </i>
-    <i>
-      <x v="99"/>
-    </i>
-    <i>
-      <x v="100"/>
-    </i>
-    <i>
-      <x v="101"/>
-    </i>
-    <i>
-      <x v="102"/>
-    </i>
-    <i>
-      <x v="103"/>
-    </i>
-    <i>
-      <x v="104"/>
-    </i>
-    <i>
-      <x v="105"/>
-    </i>
-    <i>
-      <x v="106"/>
-    </i>
-    <i>
-      <x v="107"/>
-    </i>
-    <i>
-      <x v="108"/>
-    </i>
-    <i>
-      <x v="109"/>
-    </i>
-    <i>
-      <x v="110"/>
-    </i>
-    <i>
-      <x v="111"/>
-    </i>
-    <i>
-      <x v="112"/>
-    </i>
-    <i>
-      <x v="113"/>
-    </i>
-    <i>
-      <x v="114"/>
-    </i>
-    <i>
-      <x v="117"/>
-    </i>
-    <i>
-      <x v="119"/>
-    </i>
-    <i>
-      <x v="120"/>
-    </i>
-    <i>
-      <x v="121"/>
-    </i>
-    <i>
-      <x v="123"/>
-    </i>
-    <i>
-      <x v="124"/>
-    </i>
-    <i>
-      <x v="125"/>
-    </i>
-    <i>
-      <x v="127"/>
-    </i>
-    <i>
-      <x v="130"/>
-    </i>
-    <i>
-      <x v="131"/>
-    </i>
-    <i>
-      <x v="132"/>
-    </i>
-    <i>
-      <x v="135"/>
-    </i>
-    <i>
-      <x v="137"/>
-    </i>
-    <i>
-      <x v="138"/>
-    </i>
-    <i>
-      <x v="139"/>
-    </i>
-    <i>
-      <x v="140"/>
-    </i>
-    <i>
-      <x v="142"/>
-    </i>
-    <i>
-      <x v="145"/>
-    </i>
-    <i>
-      <x v="146"/>
-    </i>
-    <i>
-      <x v="147"/>
-    </i>
-    <i>
-      <x v="148"/>
-    </i>
-    <i>
-      <x v="149"/>
-    </i>
-    <i>
-      <x v="150"/>
-    </i>
-    <i>
-      <x v="151"/>
-    </i>
-    <i>
-      <x v="152"/>
+    <i r="2">
+      <x v="1"/>
     </i>
     <i t="grand">
       <x/>
@@ -2053,10 +1992,6 @@
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="2">
-    <pageField fld="2" hier="-1"/>
-    <pageField fld="3" hier="-1"/>
-  </pageFields>
   <dataFields count="1">
     <dataField name="Сумма по полю Цена" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
@@ -2081,6 +2016,52 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Срез_Ванные" xr10:uid="{C5078E18-2BF7-4364-BD7F-53416E8B6103}" sourceName="Ванные">
+  <pivotTables>
+    <pivotTable tabId="2" name="Сводная таблица1"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="2108712228">
+      <items count="5">
+        <i x="4"/>
+        <i x="1" s="1"/>
+        <i x="2"/>
+        <i x="0"/>
+        <i x="3" nd="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Срез_Спальни" xr10:uid="{5E121251-1BED-4EDD-B3E8-3D57A8FFF539}" sourceName="Спальни">
+  <pivotTables>
+    <pivotTable tabId="2" name="Сводная таблица1"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="2108712228">
+      <items count="6">
+        <i x="5"/>
+        <i x="4"/>
+        <i x="1" s="1"/>
+        <i x="2"/>
+        <i x="0" nd="1"/>
+        <i x="3" nd="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Ванные 1" xr10:uid="{5EC4BB75-6C30-4D4E-B87F-6E7BE4F557E3}" cache="Срез_Ванные" caption="Ванные" rowHeight="225425"/>
+  <slicer name="Спальни 1" xr10:uid="{A92A4531-9EF0-4191-8A25-9832B9D43359}" cache="Срез_Спальни" caption="Спальни" rowHeight="225425"/>
+</slicers>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2404,16 +2385,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C70A46AF-ADE1-489D-A139-ED696F21F539}">
-  <dimension ref="A1:B93"/>
+  <dimension ref="A4:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="10" bestFit="1" customWidth="1"/>
@@ -2516,22 +2497,6 @@
     <col min="177" max="177" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>5</v>
@@ -2542,26 +2507,26 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
-        <v>21.12</v>
+        <v>26.62</v>
       </c>
       <c r="B5" s="5">
-        <v>4377280</v>
+        <v>3034960</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
-        <v>26.62</v>
+      <c r="A6" s="8">
+        <v>3</v>
       </c>
       <c r="B6" s="5">
         <v>3034960</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
-        <v>26.75</v>
+      <c r="A7" s="9">
+        <v>2</v>
       </c>
       <c r="B7" s="5">
-        <v>3055750</v>
+        <v>3034960</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -2573,687 +2538,63 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
-        <v>27.61</v>
+      <c r="A9" s="8">
+        <v>3</v>
       </c>
       <c r="B9" s="5">
-        <v>3091440</v>
+        <v>3137880</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
-        <v>27.94</v>
+      <c r="A10" s="9">
+        <v>2</v>
       </c>
       <c r="B10" s="5">
-        <v>3049880</v>
+        <v>3137880</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
-        <v>28.04</v>
+        <v>28.07</v>
       </c>
       <c r="B11" s="5">
-        <v>3276360</v>
+        <v>3051210</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
-        <v>28.07</v>
+      <c r="A12" s="8">
+        <v>3</v>
       </c>
       <c r="B12" s="5">
         <v>3051210</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
-        <v>28.31</v>
+      <c r="A13" s="9">
+        <v>2</v>
       </c>
       <c r="B13" s="5">
-        <v>3135930</v>
+        <v>3051210</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
-        <v>28.65</v>
+      <c r="A14" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B14" s="5">
-        <v>3045000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
-        <v>28.68</v>
-      </c>
-      <c r="B15" s="5">
-        <v>3188760</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
-        <v>29.49</v>
-      </c>
-      <c r="B16" s="5">
-        <v>3286960</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
-        <v>29.58</v>
-      </c>
-      <c r="B17" s="5">
-        <v>3030100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
-        <v>29.92</v>
-      </c>
-      <c r="B18" s="5">
-        <v>3112000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
-        <v>30.36</v>
-      </c>
-      <c r="B19" s="5">
-        <v>3216000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
-        <v>30.38</v>
-      </c>
-      <c r="B20" s="5">
-        <v>3339520</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
-        <v>30.91</v>
-      </c>
-      <c r="B21" s="5">
-        <v>3229180</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
-        <v>31.12</v>
-      </c>
-      <c r="B22" s="5">
-        <v>3465360</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
-        <v>31.23</v>
-      </c>
-      <c r="B23" s="5">
-        <v>3675300</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
-        <v>31.24</v>
-      </c>
-      <c r="B24" s="5">
-        <v>3261520</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
-        <v>31.77</v>
-      </c>
-      <c r="B25" s="5">
-        <v>3619390</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="7">
-        <v>32.15</v>
-      </c>
-      <c r="B26" s="5">
-        <v>3125650</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
-        <v>32.36</v>
-      </c>
-      <c r="B27" s="5">
-        <v>3281840</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="7">
-        <v>32.619999999999997</v>
-      </c>
-      <c r="B28" s="5">
-        <v>3376760</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="7">
-        <v>32.67</v>
-      </c>
-      <c r="B29" s="5">
-        <v>3421660</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="7">
-        <v>33.229999999999997</v>
-      </c>
-      <c r="B30" s="5">
-        <v>3802380</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="7">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="B31" s="5">
-        <v>3610000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="7">
-        <v>33.4</v>
-      </c>
-      <c r="B32" s="5">
-        <v>3366200</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="7">
-        <v>33.56</v>
-      </c>
-      <c r="B33" s="5">
-        <v>3757360</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="7">
-        <v>33.71</v>
-      </c>
-      <c r="B34" s="5">
-        <v>3348740</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="7">
-        <v>34.119999999999997</v>
-      </c>
-      <c r="B35" s="5">
-        <v>3589640</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="7">
-        <v>34.26</v>
-      </c>
-      <c r="B36" s="5">
-        <v>3568960</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="7">
-        <v>34.51</v>
-      </c>
-      <c r="B37" s="5">
-        <v>3489430</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="7">
-        <v>34.89</v>
-      </c>
-      <c r="B38" s="5">
-        <v>4077900</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="7">
-        <v>35.06</v>
-      </c>
-      <c r="B39" s="5">
-        <v>3635880</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="7">
-        <v>35.26</v>
-      </c>
-      <c r="B40" s="5">
-        <v>3468660</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="7">
-        <v>35.29</v>
-      </c>
-      <c r="B41" s="5">
-        <v>3703130</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="7">
-        <v>35.340000000000003</v>
-      </c>
-      <c r="B42" s="5">
-        <v>3875360</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="7">
-        <v>35.35</v>
-      </c>
-      <c r="B43" s="5">
-        <v>3861050</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="7">
-        <v>35.479999999999997</v>
-      </c>
-      <c r="B44" s="5">
-        <v>4031840</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="7">
-        <v>35.57</v>
-      </c>
-      <c r="B45" s="5">
-        <v>4050420</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="7">
-        <v>35.74</v>
-      </c>
-      <c r="B46" s="5">
-        <v>3789740</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="7">
-        <v>35.770000000000003</v>
-      </c>
-      <c r="B47" s="5">
-        <v>3642380</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="7">
-        <v>35.78</v>
-      </c>
-      <c r="B48" s="5">
-        <v>4044240</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="7">
-        <v>36.520000000000003</v>
-      </c>
-      <c r="B49" s="5">
-        <v>3895480</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="7">
-        <v>36.92</v>
-      </c>
-      <c r="B50" s="5">
-        <v>3653560</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="7">
-        <v>37.159999999999997</v>
-      </c>
-      <c r="B51" s="5">
-        <v>3698720</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="7">
-        <v>37.25</v>
-      </c>
-      <c r="B52" s="5">
-        <v>4005000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="7">
-        <v>37.26</v>
-      </c>
-      <c r="B53" s="5">
-        <v>4338600</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="7">
-        <v>37.42</v>
-      </c>
-      <c r="B54" s="5">
-        <v>3814900</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="7">
-        <v>37.479999999999997</v>
-      </c>
-      <c r="B55" s="5">
-        <v>3953040</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="7">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="B56" s="5">
-        <v>4115600</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="7">
-        <v>38.65</v>
-      </c>
-      <c r="B57" s="5">
-        <v>3951750</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="7">
-        <v>38.94</v>
-      </c>
-      <c r="B58" s="5">
-        <v>3842480</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="7">
-        <v>39.03</v>
-      </c>
-      <c r="B59" s="5">
-        <v>3887850</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="7">
-        <v>39.229999999999997</v>
-      </c>
-      <c r="B60" s="5">
-        <v>3908390</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="7">
-        <v>39.630000000000003</v>
-      </c>
-      <c r="B61" s="5">
-        <v>3865960</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="7">
-        <v>39.68</v>
-      </c>
-      <c r="B62" s="5">
-        <v>4287360</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="7">
-        <v>39.72</v>
-      </c>
-      <c r="B63" s="5">
-        <v>3774800</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="7">
-        <v>39.9</v>
-      </c>
-      <c r="B64" s="5">
-        <v>4250000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="7">
-        <v>40.159999999999997</v>
-      </c>
-      <c r="B65" s="5">
-        <v>4536960</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="7">
-        <v>40.24</v>
-      </c>
-      <c r="B66" s="5">
-        <v>3982080</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="7">
-        <v>40.299999999999997</v>
-      </c>
-      <c r="B67" s="5">
-        <v>4612100</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="7">
-        <v>40.93</v>
-      </c>
-      <c r="B68" s="5">
-        <v>4352070</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="7">
-        <v>41.08</v>
-      </c>
-      <c r="B69" s="5">
-        <v>4409080</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="7">
-        <v>41.44</v>
-      </c>
-      <c r="B70" s="5">
-        <v>4341120</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="7">
-        <v>42.61</v>
-      </c>
-      <c r="B71" s="5">
-        <v>4373170</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="7">
-        <v>42.79</v>
-      </c>
-      <c r="B72" s="5">
-        <v>4750160</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="7">
-        <v>42.94</v>
-      </c>
-      <c r="B73" s="5">
-        <v>4616940</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="7">
-        <v>43.16</v>
-      </c>
-      <c r="B74" s="5">
-        <v>4230720</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="7">
-        <v>43.26</v>
-      </c>
-      <c r="B75" s="5">
-        <v>4392960</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="7">
-        <v>43.63</v>
-      </c>
-      <c r="B76" s="5">
-        <v>4357590</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="7">
-        <v>44.06</v>
-      </c>
-      <c r="B77" s="5">
-        <v>4617880</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="7">
-        <v>44.41</v>
-      </c>
-      <c r="B78" s="5">
-        <v>4874230</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="7">
-        <v>44.66</v>
-      </c>
-      <c r="B79" s="5">
-        <v>4453380</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="7">
-        <v>45.08</v>
-      </c>
-      <c r="B80" s="5">
-        <v>4923240</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="7">
-        <v>45.26</v>
-      </c>
-      <c r="B81" s="5">
-        <v>5052300</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="7">
-        <v>45.48</v>
-      </c>
-      <c r="B82" s="5">
-        <v>4529640</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="7">
-        <v>46</v>
-      </c>
-      <c r="B83" s="5">
-        <v>4702000</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="7">
-        <v>46.27</v>
-      </c>
-      <c r="B84" s="5">
-        <v>9860270</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="7">
-        <v>46.88</v>
-      </c>
-      <c r="B85" s="5">
-        <v>4659840</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="7">
-        <v>47.3</v>
-      </c>
-      <c r="B86" s="5">
-        <v>4517000</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="7">
-        <v>47.42</v>
-      </c>
-      <c r="B87" s="5">
-        <v>4907160</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="7">
-        <v>47.78</v>
-      </c>
-      <c r="B88" s="5">
-        <v>5038000</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="7">
-        <v>48.05</v>
-      </c>
-      <c r="B89" s="5">
-        <v>4632550</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="7">
-        <v>48.65</v>
-      </c>
-      <c r="B90" s="5">
-        <v>5067700</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="7">
-        <v>49.3</v>
-      </c>
-      <c r="B91" s="5">
-        <v>5515100</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="7">
-        <v>49.75</v>
-      </c>
-      <c r="B92" s="5">
-        <v>5056000</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B93" s="5">
-        <v>351203730</v>
+        <v>9224050</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3261,7 +2602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C5:H160"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -5474,15 +4815,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AF8E4BBD310ADB419B3C5F1ACE4D113D" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="63e1bd94a874076348984a0131457edc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d1607db4-bd3f-4f82-a312-bf7e283d0a6b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c9989741aedae2f07a76d9f40ef2a18" ns2:_="">
     <xsd:import namespace="d1607db4-bd3f-4f82-a312-bf7e283d0a6b"/>
@@ -5542,6 +4874,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96C007-0B6E-48A2-8994-8B6C31AB568A}">
   <ds:schemaRefs>
@@ -5552,14 +4893,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93500E59-78EE-48D4-AA52-7DA38FAD0A32}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE7710A0-3E47-4582-AEA5-39F1D0DC409A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5574,4 +4907,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93500E59-78EE-48D4-AA52-7DA38FAD0A32}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>